--- a/output/xlsx/UC001 - Calcular Desconto de Produto--ART-.xlsx
+++ b/output/xlsx/UC001 - Calcular Desconto de Produto--ART-.xlsx
@@ -125,7 +125,7 @@
     <t>Usuário do Sistema visualiza formulário de informações complementares</t>
   </si>
   <si>
-    <t>SYSTEM apresenta campos: Tipo de Cliente (padrão 'A') e Quantidade (vazio)</t>
+    <t>SYSTEM apresenta campos: Tipo de Cliente e Quantidade</t>
   </si>
   <si>
     <t>Usuário do Sistema altera para tipo de cliente C</t>

--- a/output/xlsx/UC001 - Calcular Desconto de Produto--ART-.xlsx
+++ b/output/xlsx/UC001 - Calcular Desconto de Produto--ART-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="79">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -140,6 +140,33 @@
     <t>SYSTEM exibe mensagem 'A quantidade informada deve ser maior ou igual a 01 (um)!' (MSG002)</t>
   </si>
   <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>Usuário do Sistema altera para tipo de cliente B</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Usuário do Sistema mantém seleção padrão do tipo de cliente A</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Usuário do Sistema seleciona tipo de cliente se desejar alterar</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>Usuário do Sistema informa a quantidade de produtos igual ou maior que 1000 unidades</t>
+  </si>
+  <si>
+    <t>SYSTEM aplica fator de desconto para quantidade &gt;= 1000: Cliente A (1,00), B (0,95), C (0,90)</t>
+  </si>
+  <si>
     <t>Usuário do Sistema clica no botão 'Calcular Desconto!'</t>
   </si>
   <si>
@@ -168,33 +195,6 @@
   </si>
   <si>
     <t>Usuário visualiza o desconto calculado com todos os detalhes e pode realizar novo cálculo</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>Usuário do Sistema altera para tipo de cliente B</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Usuário do Sistema mantém seleção padrão do tipo de cliente A</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Usuário do Sistema seleciona tipo de cliente se desejar alterar</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>Usuário do Sistema informa a quantidade de produtos igual ou maior que 1000 unidades</t>
-  </si>
-  <si>
-    <t>SYSTEM aplica fator de desconto para quantidade &gt;= 1000: Cliente A (1,00), B (0,95), C (0,90)</t>
   </si>
   <si>
     <t>TC6</t>
@@ -444,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F326"/>
+  <dimension ref="A1:F306"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -760,92 +760,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B18" t="s" s="7">
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20">
+      <c r="A20" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s" s="4">
         <v>42</v>
       </c>
-      <c r="C18" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="B19" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="B20" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="C20" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s" s="6">
+      <c r="C20" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B21" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C21" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="E21" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s" s="6">
+      <c r="A21" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="8">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s" s="8">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s" s="8">
         <v>2</v>
@@ -860,100 +822,138 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23"/>
-    <row r="24"/>
+    <row r="23">
+      <c r="A23" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B24" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="25">
-      <c r="A25" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s" s="4">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F25" t="s" s="4">
+      <c r="A25" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B25" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F26" t="s" s="9">
+      <c r="A26" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B26" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C27" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s" s="8">
+      <c r="A27" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B27" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C28" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D28" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E28" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F28" t="s" s="5">
-        <v>25</v>
+      <c r="A28" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B28" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="10">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B29" t="s" s="7">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D29" t="s" s="7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s" s="6">
         <v>2</v>
@@ -964,16 +964,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n" s="10">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="B30" t="s" s="7">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D30" t="s" s="7">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s" s="6">
         <v>2</v>
@@ -984,16 +984,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n" s="10">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="B31" t="s" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D31" t="s" s="7">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s" s="6">
         <v>2</v>
@@ -1002,138 +1002,100 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B32" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E32" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B33" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C33" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D33" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E33" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F33" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="32"/>
+    <row r="33"/>
     <row r="34">
-      <c r="A34" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B34" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C34" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E34" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F34" t="s" s="6">
+      <c r="A34" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B35" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="C35" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E35" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s" s="6">
+      <c r="A35" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B36" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="C36" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="E36" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s" s="6">
+      <c r="A36" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B37" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C37" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="E37" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F37" t="s" s="6">
-        <v>2</v>
+      <c r="A37" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E37" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F37" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="10">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="B38" t="s" s="7">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D38" t="s" s="7">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E38" t="s" s="6">
         <v>2</v>
@@ -1144,16 +1106,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n" s="10">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="B39" t="s" s="7">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D39" t="s" s="7">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E39" t="s" s="6">
         <v>2</v>
@@ -1164,16 +1126,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n" s="10">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="B40" t="s" s="7">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D40" t="s" s="7">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E40" t="s" s="6">
         <v>2</v>
@@ -1183,199 +1145,199 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="B41" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="C41" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42"/>
-    <row r="43"/>
+      <c r="A41" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B41" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B42" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E42" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B43" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C43" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E43" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="44">
-      <c r="A44" t="s" s="4">
+      <c r="A44" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B44" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E44" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B45" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48">
+      <c r="A48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B44" t="s" s="4">
-        <v>54</v>
-      </c>
-      <c r="C44" t="s" s="4">
+      <c r="B48" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D44" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s" s="4">
+      <c r="D48" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F44" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="9">
+      <c r="F48" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B45" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s" s="9">
+      <c r="B49" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F45" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="8">
+      <c r="F49" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B46" t="s" s="8">
+      <c r="B50" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C46" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F46" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="5">
+      <c r="C50" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B47" t="s" s="5">
+      <c r="B51" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C47" t="s" s="5">
+      <c r="C51" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D47" t="s" s="5">
+      <c r="D51" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E47" t="s" s="5">
+      <c r="E51" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F47" t="s" s="5">
+      <c r="F51" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B48" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C48" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E48" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B49" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C49" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E49" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F49" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B50" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C50" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D50" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E50" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F50" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B51" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C51" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E51" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F51" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B52" t="s" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D52" t="s" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E52" t="s" s="6">
         <v>2</v>
@@ -1386,16 +1348,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n" s="10">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B53" t="s" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D53" t="s" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E53" t="s" s="6">
         <v>2</v>
@@ -1406,16 +1368,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n" s="10">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B54" t="s" s="7">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D54" t="s" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E54" t="s" s="6">
         <v>2</v>
@@ -1426,16 +1388,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n" s="10">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B55" t="s" s="7">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D55" t="s" s="7">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E55" t="s" s="6">
         <v>2</v>
@@ -1446,16 +1408,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n" s="10">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B56" t="s" s="7">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D56" t="s" s="7">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E56" t="s" s="6">
         <v>2</v>
@@ -1466,16 +1428,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n" s="10">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B57" t="s" s="7">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D57" t="s" s="7">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E57" t="s" s="6">
         <v>2</v>
@@ -1486,16 +1448,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n" s="10">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="B58" t="s" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C58" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D58" t="s" s="7">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E58" t="s" s="6">
         <v>2</v>
@@ -1506,138 +1468,138 @@
     </row>
     <row r="59">
       <c r="A59" t="n" s="10">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="B59" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C59" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E59" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62">
+      <c r="A62" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s" s="4">
         <v>48</v>
       </c>
-      <c r="C59" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D59" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="E59" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F59" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="B60" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="C60" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D60" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E60" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F60" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61"/>
-    <row r="62"/>
+      <c r="C62" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F62" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="63">
-      <c r="A63" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B63" t="s" s="4">
-        <v>56</v>
-      </c>
-      <c r="C63" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D63" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E63" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F63" t="s" s="4">
+      <c r="A63" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B64" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C64" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D64" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F64" t="s" s="9">
+      <c r="A64" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B64" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B65" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C65" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D65" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F65" t="s" s="8">
-        <v>2</v>
+      <c r="A65" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C65" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D65" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E65" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F65" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B66" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C66" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D66" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E66" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F66" t="s" s="5">
-        <v>25</v>
+      <c r="A66" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B66" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C66" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E66" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B67" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D67" t="s" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E67" t="s" s="6">
         <v>2</v>
@@ -1648,16 +1610,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n" s="10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B68" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D68" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E68" t="s" s="6">
         <v>2</v>
@@ -1668,16 +1630,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n" s="10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B69" t="s" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D69" t="s" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E69" t="s" s="6">
         <v>2</v>
@@ -1688,16 +1650,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n" s="10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B70" t="s" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D70" t="s" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E70" t="s" s="6">
         <v>2</v>
@@ -1708,16 +1670,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n" s="10">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C71" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D71" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E71" t="s" s="6">
         <v>2</v>
@@ -1728,16 +1690,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n" s="10">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B72" t="s" s="7">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C72" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D72" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E72" t="s" s="6">
         <v>2</v>
@@ -1748,16 +1710,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B73" t="s" s="7">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C73" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D73" t="s" s="7">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E73" t="s" s="6">
         <v>2</v>
@@ -1768,16 +1730,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n" s="10">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B74" t="s" s="7">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C74" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D74" t="s" s="7">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E74" t="s" s="6">
         <v>2</v>
@@ -1788,16 +1750,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n" s="10">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B75" t="s" s="7">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C75" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D75" t="s" s="7">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E75" t="s" s="6">
         <v>2</v>
@@ -1808,16 +1770,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n" s="10">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B76" t="s" s="7">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D76" t="s" s="7">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E76" t="s" s="6">
         <v>2</v>
@@ -1828,16 +1790,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n" s="10">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B77" t="s" s="7">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D77" t="s" s="7">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E77" t="s" s="6">
         <v>2</v>
@@ -1847,139 +1809,139 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B78" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C78" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="E78" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F78" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="B79" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="C79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F79" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="A78" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="B78" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="C78" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79"/>
     <row r="80"/>
-    <row r="81"/>
+    <row r="81">
+      <c r="A81" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s" s="4">
+        <v>61</v>
+      </c>
+      <c r="C81" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F81" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="82">
-      <c r="A82" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B82" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="C82" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D82" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E82" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F82" t="s" s="4">
+      <c r="A82" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F82" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B83" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C83" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D83" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E83" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F83" t="s" s="9">
+      <c r="A83" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B83" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B84" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C84" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D84" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E84" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F84" t="s" s="8">
-        <v>2</v>
+      <c r="A84" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B84" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C84" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D84" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E84" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F84" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B85" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C85" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D85" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E85" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F85" t="s" s="5">
-        <v>25</v>
+      <c r="A85" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B85" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C85" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E85" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B86" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C86" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D86" t="s" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E86" t="s" s="6">
         <v>2</v>
@@ -1990,16 +1952,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n" s="10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B87" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C87" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D87" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E87" t="s" s="6">
         <v>2</v>
@@ -2010,16 +1972,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n" s="10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B88" t="s" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C88" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D88" t="s" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E88" t="s" s="6">
         <v>2</v>
@@ -2030,16 +1992,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n" s="10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B89" t="s" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C89" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D89" t="s" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E89" t="s" s="6">
         <v>2</v>
@@ -2050,16 +2012,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n" s="10">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B90" t="s" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C90" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D90" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E90" t="s" s="6">
         <v>2</v>
@@ -2070,16 +2032,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n" s="10">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B91" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C91" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D91" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E91" t="s" s="6">
         <v>2</v>
@@ -2090,16 +2052,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B92" t="s" s="7">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C92" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D92" t="s" s="7">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E92" t="s" s="6">
         <v>2</v>
@@ -2110,16 +2072,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n" s="10">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B93" t="s" s="7">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C93" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D93" t="s" s="7">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E93" t="s" s="6">
         <v>2</v>
@@ -2130,16 +2092,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n" s="10">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B94" t="s" s="7">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C94" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D94" t="s" s="7">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E94" t="s" s="6">
         <v>2</v>
@@ -2150,16 +2112,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n" s="10">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B95" t="s" s="7">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C95" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D95" t="s" s="7">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E95" t="s" s="6">
         <v>2</v>
@@ -2170,16 +2132,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n" s="10">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B96" t="s" s="7">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C96" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D96" t="s" s="7">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E96" t="s" s="6">
         <v>2</v>
@@ -2189,139 +2151,139 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B97" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C97" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D97" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="E97" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F97" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="B98" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="C98" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D98" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E98" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F98" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="A97" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="B97" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="C97" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98"/>
     <row r="99"/>
-    <row r="100"/>
+    <row r="100">
+      <c r="A100" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B100" t="s" s="4">
+        <v>62</v>
+      </c>
+      <c r="C100" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F100" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="101">
-      <c r="A101" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B101" t="s" s="4">
-        <v>61</v>
-      </c>
-      <c r="C101" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D101" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E101" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F101" t="s" s="4">
+      <c r="A101" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C101" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F101" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B102" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C102" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D102" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E102" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F102" t="s" s="9">
+      <c r="A102" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B102" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C102" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B103" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C103" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D103" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E103" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F103" t="s" s="8">
-        <v>2</v>
+      <c r="A103" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B103" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C103" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D103" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E103" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F103" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B104" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C104" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D104" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E104" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F104" t="s" s="5">
-        <v>25</v>
+      <c r="A104" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B104" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C104" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E104" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F104" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B105" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C105" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D105" t="s" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E105" t="s" s="6">
         <v>2</v>
@@ -2332,16 +2294,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n" s="10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B106" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C106" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D106" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E106" t="s" s="6">
         <v>2</v>
@@ -2352,16 +2314,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n" s="10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B107" t="s" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C107" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D107" t="s" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E107" t="s" s="6">
         <v>2</v>
@@ -2372,16 +2334,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n" s="10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B108" t="s" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C108" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D108" t="s" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E108" t="s" s="6">
         <v>2</v>
@@ -2392,16 +2354,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n" s="10">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B109" t="s" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C109" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D109" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E109" t="s" s="6">
         <v>2</v>
@@ -2412,16 +2374,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n" s="10">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B110" t="s" s="7">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C110" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D110" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E110" t="s" s="6">
         <v>2</v>
@@ -2432,16 +2394,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B111" t="s" s="7">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C111" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D111" t="s" s="7">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E111" t="s" s="6">
         <v>2</v>
@@ -2452,16 +2414,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n" s="10">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B112" t="s" s="7">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C112" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D112" t="s" s="7">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E112" t="s" s="6">
         <v>2</v>
@@ -2472,16 +2434,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n" s="10">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B113" t="s" s="7">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C113" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D113" t="s" s="7">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E113" t="s" s="6">
         <v>2</v>
@@ -2492,16 +2454,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n" s="10">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B114" t="s" s="7">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C114" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D114" t="s" s="7">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E114" t="s" s="6">
         <v>2</v>
@@ -2512,16 +2474,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n" s="10">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B115" t="s" s="7">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C115" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D115" t="s" s="7">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E115" t="s" s="6">
         <v>2</v>
@@ -2531,139 +2493,139 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B116" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C116" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D116" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="E116" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F116" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="B117" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="C117" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D117" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E117" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F117" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="A116" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="B116" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="C116" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E116" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117"/>
     <row r="118"/>
-    <row r="119"/>
+    <row r="119">
+      <c r="A119" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B119" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="C119" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D119" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E119" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F119" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="120">
-      <c r="A120" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B120" t="s" s="4">
-        <v>62</v>
-      </c>
-      <c r="C120" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D120" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E120" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F120" t="s" s="4">
+      <c r="A120" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B120" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C120" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E120" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F120" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B121" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C121" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D121" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E121" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F121" t="s" s="9">
+      <c r="A121" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B121" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C121" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F121" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B122" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C122" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D122" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E122" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F122" t="s" s="8">
-        <v>2</v>
+      <c r="A122" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B122" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C122" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D122" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E122" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F122" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B123" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C123" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D123" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E123" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F123" t="s" s="5">
-        <v>25</v>
+      <c r="A123" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B123" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C123" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E123" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F123" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B124" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C124" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D124" t="s" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E124" t="s" s="6">
         <v>2</v>
@@ -2674,16 +2636,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n" s="10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B125" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C125" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D125" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E125" t="s" s="6">
         <v>2</v>
@@ -2694,16 +2656,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n" s="10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B126" t="s" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C126" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D126" t="s" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E126" t="s" s="6">
         <v>2</v>
@@ -2714,16 +2676,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n" s="10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B127" t="s" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C127" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D127" t="s" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E127" t="s" s="6">
         <v>2</v>
@@ -2734,16 +2696,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n" s="10">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B128" t="s" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C128" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D128" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E128" t="s" s="6">
         <v>2</v>
@@ -2754,16 +2716,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n" s="10">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B129" t="s" s="7">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C129" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D129" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E129" t="s" s="6">
         <v>2</v>
@@ -2774,16 +2736,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B130" t="s" s="7">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C130" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D130" t="s" s="7">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E130" t="s" s="6">
         <v>2</v>
@@ -2794,16 +2756,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n" s="10">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B131" t="s" s="7">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C131" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D131" t="s" s="7">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E131" t="s" s="6">
         <v>2</v>
@@ -2814,16 +2776,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n" s="10">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B132" t="s" s="7">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C132" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D132" t="s" s="7">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E132" t="s" s="6">
         <v>2</v>
@@ -2834,16 +2796,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n" s="10">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B133" t="s" s="7">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C133" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D133" t="s" s="7">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E133" t="s" s="6">
         <v>2</v>
@@ -2854,16 +2816,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n" s="10">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B134" t="s" s="7">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C134" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D134" t="s" s="7">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E134" t="s" s="6">
         <v>2</v>
@@ -2873,139 +2835,139 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B135" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C135" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D135" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="E135" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F135" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="B136" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="C136" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D136" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E136" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F136" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="A135" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="B135" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="C135" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D135" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E135" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F135" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136"/>
     <row r="137"/>
-    <row r="138"/>
+    <row r="138">
+      <c r="A138" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B138" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="C138" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D138" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E138" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F138" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="139">
-      <c r="A139" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B139" t="s" s="4">
-        <v>63</v>
-      </c>
-      <c r="C139" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D139" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E139" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F139" t="s" s="4">
+      <c r="A139" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B139" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C139" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E139" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F139" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B140" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C140" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D140" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E140" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F140" t="s" s="9">
+      <c r="A140" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B140" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C140" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E140" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F140" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B141" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C141" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D141" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E141" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F141" t="s" s="8">
-        <v>2</v>
+      <c r="A141" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B141" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C141" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D141" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E141" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F141" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B142" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C142" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D142" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E142" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F142" t="s" s="5">
-        <v>25</v>
+      <c r="A142" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B142" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C142" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E142" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F142" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B143" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C143" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D143" t="s" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E143" t="s" s="6">
         <v>2</v>
@@ -3016,16 +2978,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n" s="10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B144" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C144" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D144" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E144" t="s" s="6">
         <v>2</v>
@@ -3036,16 +2998,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n" s="10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B145" t="s" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C145" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D145" t="s" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E145" t="s" s="6">
         <v>2</v>
@@ -3056,16 +3018,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n" s="10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B146" t="s" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C146" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D146" t="s" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E146" t="s" s="6">
         <v>2</v>
@@ -3076,16 +3038,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n" s="10">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B147" t="s" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C147" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D147" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E147" t="s" s="6">
         <v>2</v>
@@ -3096,16 +3058,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n" s="10">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B148" t="s" s="7">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C148" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D148" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E148" t="s" s="6">
         <v>2</v>
@@ -3116,16 +3078,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B149" t="s" s="7">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C149" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D149" t="s" s="7">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E149" t="s" s="6">
         <v>2</v>
@@ -3136,16 +3098,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n" s="10">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B150" t="s" s="7">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C150" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D150" t="s" s="7">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E150" t="s" s="6">
         <v>2</v>
@@ -3156,16 +3118,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n" s="10">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B151" t="s" s="7">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C151" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D151" t="s" s="7">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E151" t="s" s="6">
         <v>2</v>
@@ -3176,16 +3138,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n" s="10">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B152" t="s" s="7">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C152" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D152" t="s" s="7">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E152" t="s" s="6">
         <v>2</v>
@@ -3196,16 +3158,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n" s="10">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B153" t="s" s="7">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C153" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D153" t="s" s="7">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E153" t="s" s="6">
         <v>2</v>
@@ -3215,139 +3177,139 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B154" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C154" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D154" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="E154" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F154" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="B155" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="C155" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D155" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E155" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F155" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="A154" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="B154" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="C154" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E154" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F154" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155"/>
     <row r="156"/>
-    <row r="157"/>
+    <row r="157">
+      <c r="A157" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B157" t="s" s="4">
+        <v>67</v>
+      </c>
+      <c r="C157" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D157" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E157" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F157" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="158">
-      <c r="A158" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B158" t="s" s="4">
-        <v>64</v>
-      </c>
-      <c r="C158" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D158" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E158" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F158" t="s" s="4">
+      <c r="A158" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B158" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C158" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D158" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E158" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F158" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B159" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C159" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D159" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E159" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F159" t="s" s="9">
+      <c r="A159" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B159" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C159" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D159" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E159" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F159" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B160" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C160" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D160" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E160" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F160" t="s" s="8">
-        <v>2</v>
+      <c r="A160" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B160" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C160" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D160" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E160" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F160" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B161" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C161" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D161" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E161" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F161" t="s" s="5">
-        <v>25</v>
+      <c r="A161" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B161" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C161" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E161" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F161" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B162" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C162" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D162" t="s" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E162" t="s" s="6">
         <v>2</v>
@@ -3358,16 +3320,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n" s="10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B163" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C163" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D163" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E163" t="s" s="6">
         <v>2</v>
@@ -3378,16 +3340,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n" s="10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B164" t="s" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C164" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D164" t="s" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E164" t="s" s="6">
         <v>2</v>
@@ -3398,16 +3360,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n" s="10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B165" t="s" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C165" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D165" t="s" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E165" t="s" s="6">
         <v>2</v>
@@ -3418,16 +3380,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n" s="10">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B166" t="s" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C166" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D166" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E166" t="s" s="6">
         <v>2</v>
@@ -3438,16 +3400,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n" s="10">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B167" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C167" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D167" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E167" t="s" s="6">
         <v>2</v>
@@ -3458,16 +3420,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B168" t="s" s="7">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C168" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D168" t="s" s="7">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E168" t="s" s="6">
         <v>2</v>
@@ -3478,16 +3440,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n" s="10">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B169" t="s" s="7">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C169" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D169" t="s" s="7">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E169" t="s" s="6">
         <v>2</v>
@@ -3498,16 +3460,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n" s="10">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B170" t="s" s="7">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C170" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D170" t="s" s="7">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E170" t="s" s="6">
         <v>2</v>
@@ -3518,16 +3480,16 @@
     </row>
     <row r="171">
       <c r="A171" t="n" s="10">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B171" t="s" s="7">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C171" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D171" t="s" s="7">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E171" t="s" s="6">
         <v>2</v>
@@ -3538,16 +3500,16 @@
     </row>
     <row r="172">
       <c r="A172" t="n" s="10">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B172" t="s" s="7">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C172" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D172" t="s" s="7">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E172" t="s" s="6">
         <v>2</v>
@@ -3557,139 +3519,139 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B173" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C173" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D173" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="E173" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F173" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="B174" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="C174" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D174" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E174" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F174" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="A173" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="B173" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="C173" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E173" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F173" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174"/>
     <row r="175"/>
-    <row r="176"/>
+    <row r="176">
+      <c r="A176" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B176" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="C176" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D176" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E176" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F176" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="177">
-      <c r="A177" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B177" t="s" s="4">
-        <v>67</v>
-      </c>
-      <c r="C177" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D177" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E177" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F177" t="s" s="4">
+      <c r="A177" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B177" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C177" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E177" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F177" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B178" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C178" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D178" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E178" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F178" t="s" s="9">
+      <c r="A178" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B178" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C178" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D178" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E178" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F178" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B179" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C179" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D179" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E179" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F179" t="s" s="8">
-        <v>2</v>
+      <c r="A179" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B179" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C179" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D179" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E179" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F179" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B180" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C180" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D180" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E180" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F180" t="s" s="5">
-        <v>25</v>
+      <c r="A180" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B180" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C180" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D180" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E180" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F180" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B181" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C181" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D181" t="s" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E181" t="s" s="6">
         <v>2</v>
@@ -3700,16 +3662,16 @@
     </row>
     <row r="182">
       <c r="A182" t="n" s="10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B182" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C182" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D182" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E182" t="s" s="6">
         <v>2</v>
@@ -3720,16 +3682,16 @@
     </row>
     <row r="183">
       <c r="A183" t="n" s="10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B183" t="s" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C183" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D183" t="s" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E183" t="s" s="6">
         <v>2</v>
@@ -3740,16 +3702,16 @@
     </row>
     <row r="184">
       <c r="A184" t="n" s="10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B184" t="s" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C184" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D184" t="s" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E184" t="s" s="6">
         <v>2</v>
@@ -3760,16 +3722,16 @@
     </row>
     <row r="185">
       <c r="A185" t="n" s="10">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B185" t="s" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C185" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D185" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E185" t="s" s="6">
         <v>2</v>
@@ -3780,16 +3742,16 @@
     </row>
     <row r="186">
       <c r="A186" t="n" s="10">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B186" t="s" s="7">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C186" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D186" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E186" t="s" s="6">
         <v>2</v>
@@ -3800,16 +3762,16 @@
     </row>
     <row r="187">
       <c r="A187" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B187" t="s" s="7">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C187" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D187" t="s" s="7">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E187" t="s" s="6">
         <v>2</v>
@@ -3820,16 +3782,16 @@
     </row>
     <row r="188">
       <c r="A188" t="n" s="10">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B188" t="s" s="7">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C188" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D188" t="s" s="7">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E188" t="s" s="6">
         <v>2</v>
@@ -3840,16 +3802,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n" s="10">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B189" t="s" s="7">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C189" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D189" t="s" s="7">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E189" t="s" s="6">
         <v>2</v>
@@ -3860,16 +3822,16 @@
     </row>
     <row r="190">
       <c r="A190" t="n" s="10">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B190" t="s" s="7">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C190" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D190" t="s" s="7">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E190" t="s" s="6">
         <v>2</v>
@@ -3880,16 +3842,16 @@
     </row>
     <row r="191">
       <c r="A191" t="n" s="10">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B191" t="s" s="7">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C191" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D191" t="s" s="7">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E191" t="s" s="6">
         <v>2</v>
@@ -3899,139 +3861,139 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B192" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C192" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D192" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="E192" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F192" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="B193" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="C193" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D193" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E193" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F193" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="A192" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="B192" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="C192" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D192" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E192" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F192" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193"/>
     <row r="194"/>
-    <row r="195"/>
+    <row r="195">
+      <c r="A195" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B195" t="s" s="4">
+        <v>69</v>
+      </c>
+      <c r="C195" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D195" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F195" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="196">
-      <c r="A196" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B196" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="C196" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D196" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E196" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F196" t="s" s="4">
+      <c r="A196" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B196" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C196" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D196" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E196" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F196" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B197" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C197" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D197" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E197" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F197" t="s" s="9">
+      <c r="A197" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B197" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C197" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D197" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E197" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F197" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B198" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C198" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D198" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E198" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F198" t="s" s="8">
-        <v>2</v>
+      <c r="A198" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B198" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C198" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D198" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E198" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F198" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B199" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C199" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D199" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E199" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F199" t="s" s="5">
-        <v>25</v>
+      <c r="A199" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B199" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C199" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D199" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E199" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F199" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B200" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C200" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D200" t="s" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E200" t="s" s="6">
         <v>2</v>
@@ -4042,16 +4004,16 @@
     </row>
     <row r="201">
       <c r="A201" t="n" s="10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B201" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C201" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D201" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E201" t="s" s="6">
         <v>2</v>
@@ -4062,16 +4024,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n" s="10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B202" t="s" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C202" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D202" t="s" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E202" t="s" s="6">
         <v>2</v>
@@ -4082,16 +4044,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n" s="10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B203" t="s" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C203" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D203" t="s" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E203" t="s" s="6">
         <v>2</v>
@@ -4102,16 +4064,16 @@
     </row>
     <row r="204">
       <c r="A204" t="n" s="10">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B204" t="s" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C204" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D204" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E204" t="s" s="6">
         <v>2</v>
@@ -4122,16 +4084,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n" s="10">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B205" t="s" s="7">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C205" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D205" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E205" t="s" s="6">
         <v>2</v>
@@ -4142,16 +4104,16 @@
     </row>
     <row r="206">
       <c r="A206" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B206" t="s" s="7">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C206" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D206" t="s" s="7">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E206" t="s" s="6">
         <v>2</v>
@@ -4162,16 +4124,16 @@
     </row>
     <row r="207">
       <c r="A207" t="n" s="10">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B207" t="s" s="7">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C207" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D207" t="s" s="7">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E207" t="s" s="6">
         <v>2</v>
@@ -4182,16 +4144,16 @@
     </row>
     <row r="208">
       <c r="A208" t="n" s="10">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B208" t="s" s="7">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C208" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D208" t="s" s="7">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E208" t="s" s="6">
         <v>2</v>
@@ -4202,16 +4164,16 @@
     </row>
     <row r="209">
       <c r="A209" t="n" s="10">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B209" t="s" s="7">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C209" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D209" t="s" s="7">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E209" t="s" s="6">
         <v>2</v>
@@ -4222,16 +4184,16 @@
     </row>
     <row r="210">
       <c r="A210" t="n" s="10">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B210" t="s" s="7">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C210" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D210" t="s" s="7">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E210" t="s" s="6">
         <v>2</v>
@@ -4241,139 +4203,139 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B211" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C211" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D211" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="E211" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F211" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="B212" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="C212" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D212" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E212" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F212" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="A211" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="B211" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="C211" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D211" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E211" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F211" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212"/>
     <row r="213"/>
-    <row r="214"/>
+    <row r="214">
+      <c r="A214" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B214" t="s" s="4">
+        <v>70</v>
+      </c>
+      <c r="C214" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D214" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E214" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F214" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="215">
-      <c r="A215" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B215" t="s" s="4">
-        <v>69</v>
-      </c>
-      <c r="C215" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D215" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E215" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F215" t="s" s="4">
+      <c r="A215" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B215" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C215" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D215" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E215" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F215" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B216" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C216" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D216" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E216" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F216" t="s" s="9">
+      <c r="A216" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B216" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C216" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D216" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E216" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F216" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B217" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C217" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D217" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E217" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F217" t="s" s="8">
-        <v>2</v>
+      <c r="A217" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B217" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C217" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D217" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E217" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F217" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B218" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C218" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D218" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E218" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F218" t="s" s="5">
-        <v>25</v>
+      <c r="A218" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B218" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C218" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D218" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E218" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F218" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B219" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C219" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D219" t="s" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E219" t="s" s="6">
         <v>2</v>
@@ -4384,16 +4346,16 @@
     </row>
     <row r="220">
       <c r="A220" t="n" s="10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B220" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C220" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D220" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E220" t="s" s="6">
         <v>2</v>
@@ -4404,16 +4366,16 @@
     </row>
     <row r="221">
       <c r="A221" t="n" s="10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B221" t="s" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C221" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D221" t="s" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E221" t="s" s="6">
         <v>2</v>
@@ -4424,16 +4386,16 @@
     </row>
     <row r="222">
       <c r="A222" t="n" s="10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B222" t="s" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C222" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D222" t="s" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E222" t="s" s="6">
         <v>2</v>
@@ -4444,16 +4406,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n" s="10">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B223" t="s" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C223" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D223" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E223" t="s" s="6">
         <v>2</v>
@@ -4464,16 +4426,16 @@
     </row>
     <row r="224">
       <c r="A224" t="n" s="10">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B224" t="s" s="7">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C224" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D224" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E224" t="s" s="6">
         <v>2</v>
@@ -4484,16 +4446,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B225" t="s" s="7">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C225" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D225" t="s" s="7">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E225" t="s" s="6">
         <v>2</v>
@@ -4504,16 +4466,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n" s="10">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B226" t="s" s="7">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C226" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D226" t="s" s="7">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E226" t="s" s="6">
         <v>2</v>
@@ -4524,16 +4486,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n" s="10">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B227" t="s" s="7">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C227" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D227" t="s" s="7">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E227" t="s" s="6">
         <v>2</v>
@@ -4544,16 +4506,16 @@
     </row>
     <row r="228">
       <c r="A228" t="n" s="10">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B228" t="s" s="7">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C228" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D228" t="s" s="7">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E228" t="s" s="6">
         <v>2</v>
@@ -4564,16 +4526,16 @@
     </row>
     <row r="229">
       <c r="A229" t="n" s="10">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B229" t="s" s="7">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C229" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D229" t="s" s="7">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E229" t="s" s="6">
         <v>2</v>
@@ -4583,139 +4545,139 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B230" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C230" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D230" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="E230" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F230" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="B231" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="C231" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D231" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E231" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F231" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="A230" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="B230" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="C230" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D230" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E230" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F230" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231"/>
     <row r="232"/>
-    <row r="233"/>
+    <row r="233">
+      <c r="A233" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B233" t="s" s="4">
+        <v>73</v>
+      </c>
+      <c r="C233" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D233" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E233" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F233" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="234">
-      <c r="A234" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B234" t="s" s="4">
-        <v>70</v>
-      </c>
-      <c r="C234" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D234" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E234" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F234" t="s" s="4">
+      <c r="A234" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B234" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C234" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D234" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E234" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F234" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B235" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C235" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D235" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E235" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F235" t="s" s="9">
+      <c r="A235" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B235" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C235" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D235" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E235" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F235" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B236" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C236" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D236" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E236" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F236" t="s" s="8">
-        <v>2</v>
+      <c r="A236" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B236" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C236" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D236" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E236" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F236" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B237" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C237" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D237" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E237" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F237" t="s" s="5">
-        <v>25</v>
+      <c r="A237" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B237" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C237" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D237" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E237" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F237" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B238" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C238" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D238" t="s" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E238" t="s" s="6">
         <v>2</v>
@@ -4726,16 +4688,16 @@
     </row>
     <row r="239">
       <c r="A239" t="n" s="10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B239" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C239" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D239" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E239" t="s" s="6">
         <v>2</v>
@@ -4746,16 +4708,16 @@
     </row>
     <row r="240">
       <c r="A240" t="n" s="10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B240" t="s" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C240" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D240" t="s" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E240" t="s" s="6">
         <v>2</v>
@@ -4766,16 +4728,16 @@
     </row>
     <row r="241">
       <c r="A241" t="n" s="10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B241" t="s" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C241" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D241" t="s" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E241" t="s" s="6">
         <v>2</v>
@@ -4786,16 +4748,16 @@
     </row>
     <row r="242">
       <c r="A242" t="n" s="10">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B242" t="s" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C242" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D242" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E242" t="s" s="6">
         <v>2</v>
@@ -4806,16 +4768,16 @@
     </row>
     <row r="243">
       <c r="A243" t="n" s="10">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B243" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C243" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D243" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E243" t="s" s="6">
         <v>2</v>
@@ -4826,16 +4788,16 @@
     </row>
     <row r="244">
       <c r="A244" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B244" t="s" s="7">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C244" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D244" t="s" s="7">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E244" t="s" s="6">
         <v>2</v>
@@ -4846,16 +4808,16 @@
     </row>
     <row r="245">
       <c r="A245" t="n" s="10">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B245" t="s" s="7">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C245" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D245" t="s" s="7">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E245" t="s" s="6">
         <v>2</v>
@@ -4866,16 +4828,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n" s="10">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B246" t="s" s="7">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C246" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D246" t="s" s="7">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E246" t="s" s="6">
         <v>2</v>
@@ -4886,16 +4848,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n" s="10">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B247" t="s" s="7">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C247" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D247" t="s" s="7">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E247" t="s" s="6">
         <v>2</v>
@@ -4906,16 +4868,16 @@
     </row>
     <row r="248">
       <c r="A248" t="n" s="10">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B248" t="s" s="7">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C248" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D248" t="s" s="7">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E248" t="s" s="6">
         <v>2</v>
@@ -4925,139 +4887,139 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B249" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C249" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D249" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="E249" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F249" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="B250" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="C250" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D250" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E250" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F250" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="A249" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="B249" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="C249" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D249" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E249" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F249" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250"/>
     <row r="251"/>
-    <row r="252"/>
+    <row r="252">
+      <c r="A252" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B252" t="s" s="4">
+        <v>74</v>
+      </c>
+      <c r="C252" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D252" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E252" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F252" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="253">
-      <c r="A253" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B253" t="s" s="4">
-        <v>73</v>
-      </c>
-      <c r="C253" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D253" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E253" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F253" t="s" s="4">
+      <c r="A253" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B253" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C253" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D253" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E253" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F253" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B254" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C254" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D254" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E254" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F254" t="s" s="9">
+      <c r="A254" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B254" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C254" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D254" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E254" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F254" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B255" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C255" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D255" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E255" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F255" t="s" s="8">
-        <v>2</v>
+      <c r="A255" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B255" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C255" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D255" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E255" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F255" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B256" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C256" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D256" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E256" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F256" t="s" s="5">
-        <v>25</v>
+      <c r="A256" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B256" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C256" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D256" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E256" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F256" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B257" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C257" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D257" t="s" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E257" t="s" s="6">
         <v>2</v>
@@ -5068,16 +5030,16 @@
     </row>
     <row r="258">
       <c r="A258" t="n" s="10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B258" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C258" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D258" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E258" t="s" s="6">
         <v>2</v>
@@ -5088,16 +5050,16 @@
     </row>
     <row r="259">
       <c r="A259" t="n" s="10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B259" t="s" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C259" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D259" t="s" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E259" t="s" s="6">
         <v>2</v>
@@ -5108,16 +5070,16 @@
     </row>
     <row r="260">
       <c r="A260" t="n" s="10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B260" t="s" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C260" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D260" t="s" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E260" t="s" s="6">
         <v>2</v>
@@ -5128,16 +5090,16 @@
     </row>
     <row r="261">
       <c r="A261" t="n" s="10">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B261" t="s" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C261" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D261" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E261" t="s" s="6">
         <v>2</v>
@@ -5148,16 +5110,16 @@
     </row>
     <row r="262">
       <c r="A262" t="n" s="10">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B262" t="s" s="7">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C262" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D262" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E262" t="s" s="6">
         <v>2</v>
@@ -5168,16 +5130,16 @@
     </row>
     <row r="263">
       <c r="A263" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B263" t="s" s="7">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C263" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D263" t="s" s="7">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E263" t="s" s="6">
         <v>2</v>
@@ -5188,16 +5150,16 @@
     </row>
     <row r="264">
       <c r="A264" t="n" s="10">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B264" t="s" s="7">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C264" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D264" t="s" s="7">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E264" t="s" s="6">
         <v>2</v>
@@ -5208,16 +5170,16 @@
     </row>
     <row r="265">
       <c r="A265" t="n" s="10">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B265" t="s" s="7">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C265" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D265" t="s" s="7">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E265" t="s" s="6">
         <v>2</v>
@@ -5228,16 +5190,16 @@
     </row>
     <row r="266">
       <c r="A266" t="n" s="10">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B266" t="s" s="7">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C266" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D266" t="s" s="7">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E266" t="s" s="6">
         <v>2</v>
@@ -5248,16 +5210,16 @@
     </row>
     <row r="267">
       <c r="A267" t="n" s="10">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B267" t="s" s="7">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C267" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D267" t="s" s="7">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E267" t="s" s="6">
         <v>2</v>
@@ -5267,139 +5229,139 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B268" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C268" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D268" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="E268" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F268" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="B269" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="C269" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D269" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E269" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F269" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="A268" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="B268" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="C268" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D268" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E268" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F268" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269"/>
     <row r="270"/>
-    <row r="271"/>
+    <row r="271">
+      <c r="A271" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B271" t="s" s="4">
+        <v>75</v>
+      </c>
+      <c r="C271" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D271" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E271" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F271" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="272">
-      <c r="A272" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B272" t="s" s="4">
-        <v>74</v>
-      </c>
-      <c r="C272" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D272" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E272" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F272" t="s" s="4">
+      <c r="A272" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B272" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C272" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D272" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E272" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F272" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B273" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C273" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D273" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E273" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F273" t="s" s="9">
+      <c r="A273" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B273" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C273" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D273" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E273" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F273" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B274" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C274" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D274" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E274" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F274" t="s" s="8">
-        <v>2</v>
+      <c r="A274" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B274" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C274" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D274" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E274" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F274" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B275" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C275" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D275" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E275" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F275" t="s" s="5">
-        <v>25</v>
+      <c r="A275" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B275" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C275" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D275" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E275" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F275" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B276" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C276" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D276" t="s" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E276" t="s" s="6">
         <v>2</v>
@@ -5410,16 +5372,16 @@
     </row>
     <row r="277">
       <c r="A277" t="n" s="10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B277" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C277" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D277" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E277" t="s" s="6">
         <v>2</v>
@@ -5430,16 +5392,16 @@
     </row>
     <row r="278">
       <c r="A278" t="n" s="10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B278" t="s" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C278" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D278" t="s" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E278" t="s" s="6">
         <v>2</v>
@@ -5450,16 +5412,16 @@
     </row>
     <row r="279">
       <c r="A279" t="n" s="10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B279" t="s" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C279" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D279" t="s" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E279" t="s" s="6">
         <v>2</v>
@@ -5470,16 +5432,16 @@
     </row>
     <row r="280">
       <c r="A280" t="n" s="10">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B280" t="s" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C280" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D280" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E280" t="s" s="6">
         <v>2</v>
@@ -5490,16 +5452,16 @@
     </row>
     <row r="281">
       <c r="A281" t="n" s="10">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B281" t="s" s="7">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C281" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D281" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E281" t="s" s="6">
         <v>2</v>
@@ -5510,16 +5472,16 @@
     </row>
     <row r="282">
       <c r="A282" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B282" t="s" s="7">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C282" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D282" t="s" s="7">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E282" t="s" s="6">
         <v>2</v>
@@ -5530,16 +5492,16 @@
     </row>
     <row r="283">
       <c r="A283" t="n" s="10">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B283" t="s" s="7">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C283" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D283" t="s" s="7">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E283" t="s" s="6">
         <v>2</v>
@@ -5550,16 +5512,16 @@
     </row>
     <row r="284">
       <c r="A284" t="n" s="10">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B284" t="s" s="7">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C284" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D284" t="s" s="7">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E284" t="s" s="6">
         <v>2</v>
@@ -5570,16 +5532,16 @@
     </row>
     <row r="285">
       <c r="A285" t="n" s="10">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B285" t="s" s="7">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C285" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D285" t="s" s="7">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E285" t="s" s="6">
         <v>2</v>
@@ -5590,16 +5552,16 @@
     </row>
     <row r="286">
       <c r="A286" t="n" s="10">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B286" t="s" s="7">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C286" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D286" t="s" s="7">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E286" t="s" s="6">
         <v>2</v>
@@ -5609,139 +5571,139 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B287" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C287" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D287" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="E287" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F287" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="B288" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="C288" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D288" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E288" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F288" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="A287" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="B287" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="C287" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D287" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E287" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F287" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288"/>
     <row r="289"/>
-    <row r="290"/>
+    <row r="290">
+      <c r="A290" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B290" t="s" s="4">
+        <v>76</v>
+      </c>
+      <c r="C290" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D290" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E290" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F290" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="291">
-      <c r="A291" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B291" t="s" s="4">
-        <v>75</v>
-      </c>
-      <c r="C291" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D291" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E291" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F291" t="s" s="4">
+      <c r="A291" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B291" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C291" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D291" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E291" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F291" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B292" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C292" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D292" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E292" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F292" t="s" s="9">
+      <c r="A292" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B292" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C292" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D292" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E292" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F292" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B293" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C293" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D293" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E293" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F293" t="s" s="8">
-        <v>2</v>
+      <c r="A293" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B293" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C293" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D293" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E293" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F293" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B294" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C294" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D294" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E294" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F294" t="s" s="5">
-        <v>25</v>
+      <c r="A294" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B294" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C294" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D294" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E294" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F294" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B295" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C295" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D295" t="s" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E295" t="s" s="6">
         <v>2</v>
@@ -5752,16 +5714,16 @@
     </row>
     <row r="296">
       <c r="A296" t="n" s="10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B296" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C296" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D296" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E296" t="s" s="6">
         <v>2</v>
@@ -5772,16 +5734,16 @@
     </row>
     <row r="297">
       <c r="A297" t="n" s="10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B297" t="s" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C297" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D297" t="s" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E297" t="s" s="6">
         <v>2</v>
@@ -5792,16 +5754,16 @@
     </row>
     <row r="298">
       <c r="A298" t="n" s="10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B298" t="s" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C298" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D298" t="s" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E298" t="s" s="6">
         <v>2</v>
@@ -5812,16 +5774,16 @@
     </row>
     <row r="299">
       <c r="A299" t="n" s="10">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B299" t="s" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C299" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D299" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E299" t="s" s="6">
         <v>2</v>
@@ -5832,16 +5794,16 @@
     </row>
     <row r="300">
       <c r="A300" t="n" s="10">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B300" t="s" s="7">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C300" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D300" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E300" t="s" s="6">
         <v>2</v>
@@ -5852,16 +5814,16 @@
     </row>
     <row r="301">
       <c r="A301" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B301" t="s" s="7">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C301" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D301" t="s" s="7">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E301" t="s" s="6">
         <v>2</v>
@@ -5872,16 +5834,16 @@
     </row>
     <row r="302">
       <c r="A302" t="n" s="10">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B302" t="s" s="7">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C302" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D302" t="s" s="7">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E302" t="s" s="6">
         <v>2</v>
@@ -5892,16 +5854,16 @@
     </row>
     <row r="303">
       <c r="A303" t="n" s="10">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B303" t="s" s="7">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C303" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D303" t="s" s="7">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E303" t="s" s="6">
         <v>2</v>
@@ -5912,16 +5874,16 @@
     </row>
     <row r="304">
       <c r="A304" t="n" s="10">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B304" t="s" s="7">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C304" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D304" t="s" s="7">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E304" t="s" s="6">
         <v>2</v>
@@ -5932,16 +5894,16 @@
     </row>
     <row r="305">
       <c r="A305" t="n" s="10">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B305" t="s" s="7">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C305" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D305" t="s" s="7">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E305" t="s" s="6">
         <v>2</v>
@@ -5951,384 +5913,22 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B306" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C306" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D306" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="E306" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F306" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="B307" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="C307" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D307" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E307" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F307" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="308"/>
-    <row r="309"/>
-    <row r="310">
-      <c r="A310" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B310" t="s" s="4">
-        <v>76</v>
-      </c>
-      <c r="C310" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D310" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E310" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F310" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B311" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C311" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D311" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E311" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F311" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B312" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C312" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D312" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E312" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F312" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B313" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C313" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D313" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E313" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F313" t="s" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B314" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C314" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D314" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E314" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F314" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B315" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C315" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D315" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E315" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F315" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B316" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C316" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D316" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E316" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F316" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B317" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C317" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D317" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E317" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F317" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B318" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C318" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D318" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E318" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F318" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B319" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C319" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D319" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E319" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F319" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B320" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="C320" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D320" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E320" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F320" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B321" t="s" s="7">
-        <v>77</v>
-      </c>
-      <c r="C321" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D321" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="E321" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F321" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B322" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C322" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D322" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="E322" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F322" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="n" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="B323" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="C323" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D323" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="E323" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F323" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="n" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="B324" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="C324" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D324" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="E324" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F324" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B325" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C325" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D325" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="E325" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F325" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="B326" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="C326" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D326" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E326" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F326" t="s" s="8">
+      <c r="A306" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="B306" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="C306" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D306" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E306" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F306" t="s" s="8">
         <v>2</v>
       </c>
     </row>
@@ -6337,55 +5937,51 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B122:F122"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="B178:D178"/>
-    <mergeCell ref="B179:F179"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B216:D216"/>
-    <mergeCell ref="B217:F217"/>
-    <mergeCell ref="B231:F231"/>
-    <mergeCell ref="B235:D235"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="B250:F250"/>
-    <mergeCell ref="B254:D254"/>
-    <mergeCell ref="B255:F255"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B273:D273"/>
-    <mergeCell ref="B274:F274"/>
-    <mergeCell ref="B288:F288"/>
-    <mergeCell ref="B292:D292"/>
-    <mergeCell ref="B293:F293"/>
-    <mergeCell ref="B307:F307"/>
-    <mergeCell ref="B311:D311"/>
-    <mergeCell ref="B312:F312"/>
-    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B215:D215"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="B234:D234"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B249:F249"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="B254:F254"/>
+    <mergeCell ref="B268:F268"/>
+    <mergeCell ref="B272:D272"/>
+    <mergeCell ref="B273:F273"/>
+    <mergeCell ref="B287:F287"/>
+    <mergeCell ref="B291:D291"/>
+    <mergeCell ref="B292:F292"/>
+    <mergeCell ref="B306:F306"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/UC001 - Calcular Desconto de Produto--ART-.xlsx
+++ b/output/xlsx/UC001 - Calcular Desconto de Produto--ART-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="79">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -137,6 +137,12 @@
     <t>Usuário do Sistema informa a quantidade de produtos menor ou igual a zero</t>
   </si>
   <si>
+    <t>SYSTEM registra a quantidade informada</t>
+  </si>
+  <si>
+    <t>Usuário do Sistema clica no botão 'Calcular Desconto!'</t>
+  </si>
+  <si>
     <t>SYSTEM exibe mensagem 'A quantidade informada deve ser maior ou igual a 01 (um)!' (MSG002)</t>
   </si>
   <si>
@@ -167,9 +173,6 @@
     <t>SYSTEM aplica fator de desconto para quantidade &gt;= 1000: Cliente A (1,00), B (0,95), C (0,90)</t>
   </si>
   <si>
-    <t>Usuário do Sistema clica no botão 'Calcular Desconto!'</t>
-  </si>
-  <si>
     <t>SYSTEM processa o cálculo do desconto baseado no tipo de cliente e quantidade</t>
   </si>
   <si>
@@ -246,9 +249,6 @@
   </si>
   <si>
     <t>Usuário do Sistema informa a quantidade de produtos</t>
-  </si>
-  <si>
-    <t>SYSTEM registra a quantidade informada</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F306"/>
+  <dimension ref="A1:F310"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -760,120 +760,120 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18"/>
+    <row r="18">
+      <c r="A18" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B18" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="19"/>
-    <row r="20">
-      <c r="A20" t="s" s="4">
+    <row r="20"/>
+    <row r="21">
+      <c r="A21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B20" t="s" s="4">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s" s="4">
+      <c r="B21" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D20" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s" s="4">
+      <c r="D21" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F20" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="9">
+      <c r="F21" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B21" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s" s="9">
+      <c r="B22" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F21" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="8">
+      <c r="F22" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B22" t="s" s="8">
+      <c r="B23" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C22" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F22" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="5">
+      <c r="C23" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B23" t="s" s="5">
+      <c r="B24" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C23" t="s" s="5">
+      <c r="C24" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D23" t="s" s="5">
+      <c r="D24" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E23" t="s" s="5">
+      <c r="E24" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F23" t="s" s="5">
+      <c r="F24" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B24" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E24" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B25" t="s" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D25" t="s" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s" s="6">
         <v>2</v>
@@ -884,16 +884,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n" s="10">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B26" t="s" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D26" t="s" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s" s="6">
         <v>2</v>
@@ -904,16 +904,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n" s="10">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B27" t="s" s="7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D27" t="s" s="7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s" s="6">
         <v>2</v>
@@ -924,16 +924,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n" s="10">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B28" t="s" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D28" t="s" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s" s="6">
         <v>2</v>
@@ -944,16 +944,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="10">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B29" t="s" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D29" t="s" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s" s="6">
         <v>2</v>
@@ -964,16 +964,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n" s="10">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B30" t="s" s="7">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D30" t="s" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s" s="6">
         <v>2</v>
@@ -984,158 +984,158 @@
     </row>
     <row r="31">
       <c r="A31" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B31" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E31" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="10">
         <v>8.0</v>
       </c>
-      <c r="B31" t="s" s="7">
+      <c r="B32" t="s" s="7">
         <v>40</v>
       </c>
-      <c r="C31" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s" s="7">
+      <c r="C32" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s" s="7">
         <v>41</v>
       </c>
-      <c r="E31" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34">
-      <c r="A34" t="s" s="4">
+      <c r="E32" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B33" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36">
+      <c r="A36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B34" t="s" s="4">
-        <v>44</v>
-      </c>
-      <c r="C34" t="s" s="4">
+      <c r="B36" t="s" s="4">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D34" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s" s="4">
+      <c r="D36" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F34" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="9">
+      <c r="F36" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B35" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s" s="9">
+      <c r="B37" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F35" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="8">
+      <c r="F37" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B36" t="s" s="8">
+      <c r="B38" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C36" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="5">
+      <c r="C38" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B37" t="s" s="5">
+      <c r="B39" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C37" t="s" s="5">
+      <c r="C39" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D37" t="s" s="5">
+      <c r="D39" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E37" t="s" s="5">
+      <c r="E39" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F37" t="s" s="5">
+      <c r="F39" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B38" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C38" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E38" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F38" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B39" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C39" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E39" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F39" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="10">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B40" t="s" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D40" t="s" s="7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E40" t="s" s="6">
         <v>2</v>
@@ -1146,16 +1146,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n" s="10">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B41" t="s" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D41" t="s" s="7">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s" s="6">
         <v>2</v>
@@ -1166,16 +1166,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n" s="10">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B42" t="s" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D42" t="s" s="7">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s" s="6">
         <v>2</v>
@@ -1186,16 +1186,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n" s="10">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B43" t="s" s="7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D43" t="s" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E43" t="s" s="6">
         <v>2</v>
@@ -1206,16 +1206,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n" s="10">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B44" t="s" s="7">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D44" t="s" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s" s="6">
         <v>2</v>
@@ -1226,178 +1226,178 @@
     </row>
     <row r="45">
       <c r="A45" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B45" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C45" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E45" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B46" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E46" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="10">
         <v>8.0</v>
       </c>
-      <c r="B45" t="s" s="7">
+      <c r="B47" t="s" s="7">
         <v>40</v>
       </c>
-      <c r="C45" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s" s="7">
+      <c r="C47" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s" s="7">
         <v>41</v>
       </c>
-      <c r="E45" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F45" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46"/>
-    <row r="47"/>
+      <c r="E47" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="48">
-      <c r="A48" t="s" s="4">
+      <c r="A48" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B48" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E48" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51">
+      <c r="A51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B48" t="s" s="4">
-        <v>46</v>
-      </c>
-      <c r="C48" t="s" s="4">
+      <c r="B51" t="s" s="4">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D48" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s" s="4">
+      <c r="D51" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F48" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="9">
+      <c r="F51" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B49" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s" s="9">
+      <c r="B52" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F49" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="8">
+      <c r="F52" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B50" t="s" s="8">
+      <c r="B53" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C50" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D50" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E50" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F50" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="5">
+      <c r="C53" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B51" t="s" s="5">
+      <c r="B54" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C51" t="s" s="5">
+      <c r="C54" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D51" t="s" s="5">
+      <c r="D54" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E51" t="s" s="5">
+      <c r="E54" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F51" t="s" s="5">
+      <c r="F54" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B52" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C52" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E52" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F52" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B53" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C53" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E53" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F53" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B54" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C54" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E54" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F54" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="10">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B55" t="s" s="7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C55" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D55" t="s" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E55" t="s" s="6">
         <v>2</v>
@@ -1408,16 +1408,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n" s="10">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B56" t="s" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D56" t="s" s="7">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E56" t="s" s="6">
         <v>2</v>
@@ -1428,16 +1428,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n" s="10">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B57" t="s" s="7">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D57" t="s" s="7">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E57" t="s" s="6">
         <v>2</v>
@@ -1448,16 +1448,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n" s="10">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B58" t="s" s="7">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D58" t="s" s="7">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E58" t="s" s="6">
         <v>2</v>
@@ -1468,198 +1468,198 @@
     </row>
     <row r="59">
       <c r="A59" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B59" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C59" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E59" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B60" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C60" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E60" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B61" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="C61" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E61" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n" s="10">
         <v>8.0</v>
       </c>
-      <c r="B59" t="s" s="7">
+      <c r="B62" t="s" s="7">
         <v>40</v>
       </c>
-      <c r="C59" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D59" t="s" s="7">
+      <c r="C62" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s" s="7">
         <v>41</v>
       </c>
-      <c r="E59" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F59" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62">
-      <c r="A62" t="s" s="4">
+      <c r="E62" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B63" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C63" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E63" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66">
+      <c r="A66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B62" t="s" s="4">
-        <v>48</v>
-      </c>
-      <c r="C62" t="s" s="4">
+      <c r="B66" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="C66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D62" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E62" t="s" s="4">
+      <c r="D66" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F62" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="9">
+      <c r="F66" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B63" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C63" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D63" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E63" t="s" s="9">
+      <c r="B67" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F63" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="8">
+      <c r="F67" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B64" t="s" s="8">
+      <c r="B68" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C64" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D64" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F64" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="5">
+      <c r="C68" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B65" t="s" s="5">
+      <c r="B69" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C65" t="s" s="5">
+      <c r="C69" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D65" t="s" s="5">
+      <c r="D69" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E65" t="s" s="5">
+      <c r="E69" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F65" t="s" s="5">
+      <c r="F69" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B66" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C66" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D66" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E66" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F66" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B67" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C67" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E67" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F67" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B68" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C68" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D68" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E68" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F68" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B69" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C69" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D69" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E69" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F69" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B70" t="s" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C70" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D70" t="s" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E70" t="s" s="6">
         <v>2</v>
@@ -1670,16 +1670,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n" s="10">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D71" t="s" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E71" t="s" s="6">
         <v>2</v>
@@ -1690,16 +1690,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n" s="10">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B72" t="s" s="7">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C72" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D72" t="s" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E72" t="s" s="6">
         <v>2</v>
@@ -1710,16 +1710,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n" s="10">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B73" t="s" s="7">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D73" t="s" s="7">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E73" t="s" s="6">
         <v>2</v>
@@ -1730,16 +1730,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n" s="10">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B74" t="s" s="7">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C74" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D74" t="s" s="7">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E74" t="s" s="6">
         <v>2</v>
@@ -1750,16 +1750,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n" s="10">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B75" t="s" s="7">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C75" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D75" t="s" s="7">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E75" t="s" s="6">
         <v>2</v>
@@ -1770,16 +1770,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n" s="10">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="B76" t="s" s="7">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C76" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D76" t="s" s="7">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E76" t="s" s="6">
         <v>2</v>
@@ -1790,218 +1790,218 @@
     </row>
     <row r="77">
       <c r="A77" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B77" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C77" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="E77" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B78" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B79" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="E79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B80" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="C80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B77" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="C77" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s" s="7">
+      <c r="B81" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="E77" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F77" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="8">
+      <c r="C81" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s" s="7">
         <v>59</v>
       </c>
-      <c r="B78" t="s" s="8">
+      <c r="E81" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="8">
         <v>60</v>
       </c>
-      <c r="C78" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F78" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81">
-      <c r="A81" t="s" s="4">
+      <c r="B82" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="C82" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85">
+      <c r="A85" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B81" t="s" s="4">
-        <v>61</v>
-      </c>
-      <c r="C81" t="s" s="4">
+      <c r="B85" t="s" s="4">
+        <v>62</v>
+      </c>
+      <c r="C85" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D81" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E81" t="s" s="4">
+      <c r="D85" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F81" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="9">
+      <c r="F85" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B82" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C82" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D82" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E82" t="s" s="9">
+      <c r="B86" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F82" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="8">
+      <c r="F86" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B83" t="s" s="8">
+      <c r="B87" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C83" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D83" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E83" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F83" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="5">
+      <c r="C87" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B84" t="s" s="5">
+      <c r="B88" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C84" t="s" s="5">
+      <c r="C88" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D84" t="s" s="5">
+      <c r="D88" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E84" t="s" s="5">
+      <c r="E88" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F84" t="s" s="5">
+      <c r="F88" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B85" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C85" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D85" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E85" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F85" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B86" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C86" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D86" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E86" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F86" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B87" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C87" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D87" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E87" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F87" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B88" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C88" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D88" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E88" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F88" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B89" t="s" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C89" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D89" t="s" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E89" t="s" s="6">
         <v>2</v>
@@ -2012,16 +2012,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n" s="10">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B90" t="s" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C90" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D90" t="s" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E90" t="s" s="6">
         <v>2</v>
@@ -2032,16 +2032,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n" s="10">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B91" t="s" s="7">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C91" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D91" t="s" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E91" t="s" s="6">
         <v>2</v>
@@ -2052,16 +2052,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n" s="10">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B92" t="s" s="7">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C92" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D92" t="s" s="7">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E92" t="s" s="6">
         <v>2</v>
@@ -2072,16 +2072,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n" s="10">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B93" t="s" s="7">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C93" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D93" t="s" s="7">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E93" t="s" s="6">
         <v>2</v>
@@ -2092,16 +2092,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n" s="10">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B94" t="s" s="7">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C94" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D94" t="s" s="7">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E94" t="s" s="6">
         <v>2</v>
@@ -2112,16 +2112,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n" s="10">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="B95" t="s" s="7">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C95" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D95" t="s" s="7">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E95" t="s" s="6">
         <v>2</v>
@@ -2132,218 +2132,218 @@
     </row>
     <row r="96">
       <c r="A96" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B96" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C96" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="E96" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F96" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B97" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C97" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E97" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B98" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C98" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="E98" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B99" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="C99" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E99" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F99" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B96" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="C96" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D96" t="s" s="7">
+      <c r="B100" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="E96" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F96" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="8">
+      <c r="C100" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s" s="7">
         <v>59</v>
       </c>
-      <c r="B97" t="s" s="8">
+      <c r="E100" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F100" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="8">
         <v>60</v>
       </c>
-      <c r="C97" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D97" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E97" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F97" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100">
-      <c r="A100" t="s" s="4">
+      <c r="B101" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="C101" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104">
+      <c r="A104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B100" t="s" s="4">
-        <v>62</v>
-      </c>
-      <c r="C100" t="s" s="4">
+      <c r="B104" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="C104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D100" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E100" t="s" s="4">
+      <c r="D104" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F100" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="9">
+      <c r="F104" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B101" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C101" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D101" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E101" t="s" s="9">
+      <c r="B105" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C105" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F101" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="8">
+      <c r="F105" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B102" t="s" s="8">
+      <c r="B106" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C102" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D102" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E102" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F102" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="5">
+      <c r="C106" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F106" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B103" t="s" s="5">
+      <c r="B107" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C103" t="s" s="5">
+      <c r="C107" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D103" t="s" s="5">
+      <c r="D107" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E103" t="s" s="5">
+      <c r="E107" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F103" t="s" s="5">
+      <c r="F107" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B104" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C104" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D104" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E104" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F104" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B105" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C105" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D105" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E105" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F105" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B106" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C106" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D106" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E106" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F106" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B107" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C107" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D107" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E107" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F107" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B108" t="s" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C108" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D108" t="s" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E108" t="s" s="6">
         <v>2</v>
@@ -2354,16 +2354,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n" s="10">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B109" t="s" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C109" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D109" t="s" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E109" t="s" s="6">
         <v>2</v>
@@ -2374,16 +2374,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n" s="10">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B110" t="s" s="7">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C110" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D110" t="s" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E110" t="s" s="6">
         <v>2</v>
@@ -2394,16 +2394,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n" s="10">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B111" t="s" s="7">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C111" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D111" t="s" s="7">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E111" t="s" s="6">
         <v>2</v>
@@ -2414,16 +2414,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n" s="10">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B112" t="s" s="7">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C112" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D112" t="s" s="7">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E112" t="s" s="6">
         <v>2</v>
@@ -2434,16 +2434,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n" s="10">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B113" t="s" s="7">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C113" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D113" t="s" s="7">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E113" t="s" s="6">
         <v>2</v>
@@ -2454,16 +2454,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n" s="10">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="B114" t="s" s="7">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C114" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D114" t="s" s="7">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E114" t="s" s="6">
         <v>2</v>
@@ -2474,218 +2474,218 @@
     </row>
     <row r="115">
       <c r="A115" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B115" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C115" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="E115" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F115" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B116" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C116" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E116" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B117" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C117" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="E117" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F117" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B118" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="C118" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E118" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F118" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B115" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="C115" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D115" t="s" s="7">
+      <c r="B119" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="E115" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F115" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="8">
+      <c r="C119" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s" s="7">
         <v>59</v>
       </c>
-      <c r="B116" t="s" s="8">
+      <c r="E119" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F119" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="8">
         <v>60</v>
       </c>
-      <c r="C116" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D116" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E116" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F116" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119">
-      <c r="A119" t="s" s="4">
+      <c r="B120" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="C120" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E120" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F120" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123">
+      <c r="A123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B119" t="s" s="4">
-        <v>63</v>
-      </c>
-      <c r="C119" t="s" s="4">
+      <c r="B123" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="C123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D119" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E119" t="s" s="4">
+      <c r="D123" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F119" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="9">
+      <c r="F123" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B120" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C120" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D120" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E120" t="s" s="9">
+      <c r="B124" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C124" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E124" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F120" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="8">
+      <c r="F124" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B121" t="s" s="8">
+      <c r="B125" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C121" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D121" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E121" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F121" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="5">
+      <c r="C125" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E125" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F125" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B122" t="s" s="5">
+      <c r="B126" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C122" t="s" s="5">
+      <c r="C126" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D122" t="s" s="5">
+      <c r="D126" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E122" t="s" s="5">
+      <c r="E126" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F122" t="s" s="5">
+      <c r="F126" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B123" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C123" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D123" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E123" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F123" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B124" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C124" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D124" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E124" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F124" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B125" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C125" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D125" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E125" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F125" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B126" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C126" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D126" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E126" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F126" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B127" t="s" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C127" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D127" t="s" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E127" t="s" s="6">
         <v>2</v>
@@ -2696,16 +2696,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n" s="10">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B128" t="s" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C128" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D128" t="s" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E128" t="s" s="6">
         <v>2</v>
@@ -2716,16 +2716,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n" s="10">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B129" t="s" s="7">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C129" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D129" t="s" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E129" t="s" s="6">
         <v>2</v>
@@ -2736,16 +2736,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n" s="10">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B130" t="s" s="7">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C130" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D130" t="s" s="7">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E130" t="s" s="6">
         <v>2</v>
@@ -2756,16 +2756,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n" s="10">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B131" t="s" s="7">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C131" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D131" t="s" s="7">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E131" t="s" s="6">
         <v>2</v>
@@ -2776,16 +2776,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n" s="10">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B132" t="s" s="7">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C132" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D132" t="s" s="7">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E132" t="s" s="6">
         <v>2</v>
@@ -2796,16 +2796,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n" s="10">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="B133" t="s" s="7">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C133" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D133" t="s" s="7">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E133" t="s" s="6">
         <v>2</v>
@@ -2816,218 +2816,218 @@
     </row>
     <row r="134">
       <c r="A134" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B134" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C134" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="E134" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F134" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B135" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C135" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D135" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E135" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F135" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B136" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C136" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="E136" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F136" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B137" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="C137" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E137" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F137" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B134" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="C134" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D134" t="s" s="7">
+      <c r="B138" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="E134" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F134" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s" s="8">
+      <c r="C138" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s" s="7">
         <v>59</v>
       </c>
-      <c r="B135" t="s" s="8">
+      <c r="E138" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F138" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="8">
         <v>60</v>
       </c>
-      <c r="C135" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D135" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E135" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F135" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138">
-      <c r="A138" t="s" s="4">
+      <c r="B139" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="C139" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E139" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F139" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142">
+      <c r="A142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B138" t="s" s="4">
-        <v>64</v>
-      </c>
-      <c r="C138" t="s" s="4">
+      <c r="B142" t="s" s="4">
+        <v>65</v>
+      </c>
+      <c r="C142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D138" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E138" t="s" s="4">
+      <c r="D142" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F138" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s" s="9">
+      <c r="F142" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B139" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C139" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D139" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E139" t="s" s="9">
+      <c r="B143" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C143" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E143" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F139" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s" s="8">
+      <c r="F143" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B140" t="s" s="8">
+      <c r="B144" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C140" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D140" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E140" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F140" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s" s="5">
+      <c r="C144" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D144" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E144" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F144" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B141" t="s" s="5">
+      <c r="B145" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C141" t="s" s="5">
+      <c r="C145" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D141" t="s" s="5">
+      <c r="D145" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E141" t="s" s="5">
+      <c r="E145" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F141" t="s" s="5">
+      <c r="F145" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B142" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C142" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D142" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E142" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F142" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B143" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C143" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D143" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E143" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F143" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B144" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C144" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D144" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E144" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F144" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B145" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C145" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D145" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E145" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F145" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B146" t="s" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C146" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D146" t="s" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E146" t="s" s="6">
         <v>2</v>
@@ -3038,16 +3038,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n" s="10">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B147" t="s" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C147" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D147" t="s" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E147" t="s" s="6">
         <v>2</v>
@@ -3058,16 +3058,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n" s="10">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B148" t="s" s="7">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C148" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D148" t="s" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E148" t="s" s="6">
         <v>2</v>
@@ -3078,16 +3078,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n" s="10">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B149" t="s" s="7">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C149" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D149" t="s" s="7">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E149" t="s" s="6">
         <v>2</v>
@@ -3098,16 +3098,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n" s="10">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B150" t="s" s="7">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C150" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D150" t="s" s="7">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E150" t="s" s="6">
         <v>2</v>
@@ -3118,16 +3118,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n" s="10">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B151" t="s" s="7">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C151" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D151" t="s" s="7">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E151" t="s" s="6">
         <v>2</v>
@@ -3138,16 +3138,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n" s="10">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="B152" t="s" s="7">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C152" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D152" t="s" s="7">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E152" t="s" s="6">
         <v>2</v>
@@ -3158,218 +3158,218 @@
     </row>
     <row r="153">
       <c r="A153" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B153" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="C153" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s" s="7">
+        <v>67</v>
+      </c>
+      <c r="E153" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F153" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B154" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C154" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E154" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F154" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B155" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C155" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="E155" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F155" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B156" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="C156" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D156" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E156" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F156" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B153" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="C153" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D153" t="s" s="7">
+      <c r="B157" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="E153" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F153" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s" s="8">
+      <c r="C157" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D157" t="s" s="7">
         <v>59</v>
       </c>
-      <c r="B154" t="s" s="8">
+      <c r="E157" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F157" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="8">
         <v>60</v>
       </c>
-      <c r="C154" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D154" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E154" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F154" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157">
-      <c r="A157" t="s" s="4">
+      <c r="B158" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="C158" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D158" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E158" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F158" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161">
+      <c r="A161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B157" t="s" s="4">
-        <v>67</v>
-      </c>
-      <c r="C157" t="s" s="4">
+      <c r="B161" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="C161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D157" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E157" t="s" s="4">
+      <c r="D161" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F157" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s" s="9">
+      <c r="F161" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B158" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C158" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D158" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E158" t="s" s="9">
+      <c r="B162" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C162" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D162" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E162" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F158" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s" s="8">
+      <c r="F162" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B159" t="s" s="8">
+      <c r="B163" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C159" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D159" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E159" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F159" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s" s="5">
+      <c r="C163" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E163" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F163" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B160" t="s" s="5">
+      <c r="B164" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C160" t="s" s="5">
+      <c r="C164" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D160" t="s" s="5">
+      <c r="D164" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E160" t="s" s="5">
+      <c r="E164" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F160" t="s" s="5">
+      <c r="F164" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B161" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C161" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D161" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E161" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F161" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B162" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C162" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D162" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E162" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F162" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B163" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C163" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D163" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E163" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F163" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B164" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C164" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D164" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E164" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F164" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B165" t="s" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C165" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D165" t="s" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E165" t="s" s="6">
         <v>2</v>
@@ -3380,16 +3380,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n" s="10">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B166" t="s" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C166" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D166" t="s" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E166" t="s" s="6">
         <v>2</v>
@@ -3400,16 +3400,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n" s="10">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B167" t="s" s="7">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C167" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D167" t="s" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E167" t="s" s="6">
         <v>2</v>
@@ -3420,16 +3420,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n" s="10">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B168" t="s" s="7">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C168" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D168" t="s" s="7">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E168" t="s" s="6">
         <v>2</v>
@@ -3440,16 +3440,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n" s="10">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B169" t="s" s="7">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C169" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D169" t="s" s="7">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E169" t="s" s="6">
         <v>2</v>
@@ -3460,16 +3460,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n" s="10">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B170" t="s" s="7">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C170" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D170" t="s" s="7">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E170" t="s" s="6">
         <v>2</v>
@@ -3480,16 +3480,16 @@
     </row>
     <row r="171">
       <c r="A171" t="n" s="10">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="B171" t="s" s="7">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C171" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D171" t="s" s="7">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E171" t="s" s="6">
         <v>2</v>
@@ -3500,218 +3500,218 @@
     </row>
     <row r="172">
       <c r="A172" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B172" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="C172" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D172" t="s" s="7">
+        <v>67</v>
+      </c>
+      <c r="E172" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F172" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B173" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C173" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E173" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F173" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B174" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C174" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D174" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="E174" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F174" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B175" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="C175" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D175" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E175" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F175" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B172" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="C172" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D172" t="s" s="7">
+      <c r="B176" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="E172" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F172" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s" s="8">
+      <c r="C176" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D176" t="s" s="7">
         <v>59</v>
       </c>
-      <c r="B173" t="s" s="8">
+      <c r="E176" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F176" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="8">
         <v>60</v>
       </c>
-      <c r="C173" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D173" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E173" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F173" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176">
-      <c r="A176" t="s" s="4">
+      <c r="B177" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="C177" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E177" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F177" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180">
+      <c r="A180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B176" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="C176" t="s" s="4">
+      <c r="B180" t="s" s="4">
+        <v>69</v>
+      </c>
+      <c r="C180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D176" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E176" t="s" s="4">
+      <c r="D180" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F176" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s" s="9">
+      <c r="F180" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B177" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C177" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D177" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E177" t="s" s="9">
+      <c r="B181" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C181" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D181" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E181" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F177" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s" s="8">
+      <c r="F181" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B178" t="s" s="8">
+      <c r="B182" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C178" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D178" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E178" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F178" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s" s="5">
+      <c r="C182" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D182" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E182" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F182" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B179" t="s" s="5">
+      <c r="B183" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C179" t="s" s="5">
+      <c r="C183" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D179" t="s" s="5">
+      <c r="D183" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E179" t="s" s="5">
+      <c r="E183" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F179" t="s" s="5">
+      <c r="F183" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B180" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C180" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D180" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E180" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F180" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B181" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C181" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D181" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E181" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F181" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B182" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C182" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D182" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E182" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F182" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B183" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C183" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D183" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E183" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F183" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B184" t="s" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C184" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D184" t="s" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E184" t="s" s="6">
         <v>2</v>
@@ -3722,16 +3722,16 @@
     </row>
     <row r="185">
       <c r="A185" t="n" s="10">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B185" t="s" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C185" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D185" t="s" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E185" t="s" s="6">
         <v>2</v>
@@ -3742,16 +3742,16 @@
     </row>
     <row r="186">
       <c r="A186" t="n" s="10">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B186" t="s" s="7">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C186" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D186" t="s" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E186" t="s" s="6">
         <v>2</v>
@@ -3762,16 +3762,16 @@
     </row>
     <row r="187">
       <c r="A187" t="n" s="10">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B187" t="s" s="7">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C187" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D187" t="s" s="7">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E187" t="s" s="6">
         <v>2</v>
@@ -3782,16 +3782,16 @@
     </row>
     <row r="188">
       <c r="A188" t="n" s="10">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B188" t="s" s="7">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C188" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D188" t="s" s="7">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E188" t="s" s="6">
         <v>2</v>
@@ -3802,16 +3802,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n" s="10">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B189" t="s" s="7">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C189" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D189" t="s" s="7">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E189" t="s" s="6">
         <v>2</v>
@@ -3822,16 +3822,16 @@
     </row>
     <row r="190">
       <c r="A190" t="n" s="10">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="B190" t="s" s="7">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C190" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D190" t="s" s="7">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E190" t="s" s="6">
         <v>2</v>
@@ -3842,218 +3842,218 @@
     </row>
     <row r="191">
       <c r="A191" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B191" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="C191" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D191" t="s" s="7">
+        <v>67</v>
+      </c>
+      <c r="E191" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F191" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B192" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C192" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D192" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E192" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F192" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B193" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C193" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D193" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="E193" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F193" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B194" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="C194" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D194" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E194" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F194" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B191" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="C191" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D191" t="s" s="7">
+      <c r="B195" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="E191" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F191" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s" s="8">
+      <c r="C195" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s" s="7">
         <v>59</v>
       </c>
-      <c r="B192" t="s" s="8">
+      <c r="E195" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F195" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="8">
         <v>60</v>
       </c>
-      <c r="C192" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D192" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E192" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F192" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195">
-      <c r="A195" t="s" s="4">
+      <c r="B196" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="C196" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D196" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E196" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F196" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199">
+      <c r="A199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B195" t="s" s="4">
-        <v>69</v>
-      </c>
-      <c r="C195" t="s" s="4">
+      <c r="B199" t="s" s="4">
+        <v>70</v>
+      </c>
+      <c r="C199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D195" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E195" t="s" s="4">
+      <c r="D199" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F195" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s" s="9">
+      <c r="F199" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B196" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C196" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D196" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E196" t="s" s="9">
+      <c r="B200" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C200" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D200" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E200" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F196" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s" s="8">
+      <c r="F200" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B197" t="s" s="8">
+      <c r="B201" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C197" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D197" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E197" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F197" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s" s="5">
+      <c r="C201" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D201" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E201" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F201" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B198" t="s" s="5">
+      <c r="B202" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C198" t="s" s="5">
+      <c r="C202" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D198" t="s" s="5">
+      <c r="D202" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E198" t="s" s="5">
+      <c r="E202" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F198" t="s" s="5">
+      <c r="F202" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B199" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C199" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D199" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E199" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F199" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B200" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C200" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D200" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E200" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F200" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B201" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C201" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D201" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E201" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F201" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B202" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C202" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D202" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E202" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F202" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B203" t="s" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C203" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D203" t="s" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E203" t="s" s="6">
         <v>2</v>
@@ -4064,16 +4064,16 @@
     </row>
     <row r="204">
       <c r="A204" t="n" s="10">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B204" t="s" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C204" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D204" t="s" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E204" t="s" s="6">
         <v>2</v>
@@ -4084,16 +4084,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n" s="10">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B205" t="s" s="7">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C205" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D205" t="s" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E205" t="s" s="6">
         <v>2</v>
@@ -4104,16 +4104,16 @@
     </row>
     <row r="206">
       <c r="A206" t="n" s="10">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B206" t="s" s="7">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C206" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D206" t="s" s="7">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E206" t="s" s="6">
         <v>2</v>
@@ -4124,16 +4124,16 @@
     </row>
     <row r="207">
       <c r="A207" t="n" s="10">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B207" t="s" s="7">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C207" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D207" t="s" s="7">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E207" t="s" s="6">
         <v>2</v>
@@ -4144,16 +4144,16 @@
     </row>
     <row r="208">
       <c r="A208" t="n" s="10">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B208" t="s" s="7">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C208" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D208" t="s" s="7">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E208" t="s" s="6">
         <v>2</v>
@@ -4164,16 +4164,16 @@
     </row>
     <row r="209">
       <c r="A209" t="n" s="10">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="B209" t="s" s="7">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C209" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D209" t="s" s="7">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E209" t="s" s="6">
         <v>2</v>
@@ -4184,218 +4184,218 @@
     </row>
     <row r="210">
       <c r="A210" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B210" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="C210" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D210" t="s" s="7">
+        <v>67</v>
+      </c>
+      <c r="E210" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F210" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B211" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C211" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D211" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E211" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F211" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B212" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C212" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D212" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="E212" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F212" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B213" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="C213" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D213" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E213" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F213" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B210" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="C210" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D210" t="s" s="7">
+      <c r="B214" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="E210" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F210" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s" s="8">
+      <c r="C214" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D214" t="s" s="7">
         <v>59</v>
       </c>
-      <c r="B211" t="s" s="8">
+      <c r="E214" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F214" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="8">
         <v>60</v>
       </c>
-      <c r="C211" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D211" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E211" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F211" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212"/>
-    <row r="213"/>
-    <row r="214">
-      <c r="A214" t="s" s="4">
+      <c r="B215" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="C215" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D215" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E215" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F215" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218">
+      <c r="A218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B214" t="s" s="4">
-        <v>70</v>
-      </c>
-      <c r="C214" t="s" s="4">
+      <c r="B218" t="s" s="4">
+        <v>71</v>
+      </c>
+      <c r="C218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D214" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E214" t="s" s="4">
+      <c r="D218" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F214" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s" s="9">
+      <c r="F218" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B215" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C215" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D215" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E215" t="s" s="9">
+      <c r="B219" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C219" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D219" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E219" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F215" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s" s="8">
+      <c r="F219" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B216" t="s" s="8">
+      <c r="B220" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C216" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D216" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E216" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F216" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s" s="5">
+      <c r="C220" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D220" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E220" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F220" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B217" t="s" s="5">
+      <c r="B221" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C217" t="s" s="5">
+      <c r="C221" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D217" t="s" s="5">
+      <c r="D221" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E217" t="s" s="5">
+      <c r="E221" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F217" t="s" s="5">
+      <c r="F221" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B218" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C218" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D218" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E218" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F218" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B219" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C219" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D219" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E219" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F219" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B220" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C220" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D220" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E220" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F220" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B221" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C221" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D221" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E221" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F221" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B222" t="s" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C222" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D222" t="s" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E222" t="s" s="6">
         <v>2</v>
@@ -4406,16 +4406,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n" s="10">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B223" t="s" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C223" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D223" t="s" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E223" t="s" s="6">
         <v>2</v>
@@ -4426,16 +4426,16 @@
     </row>
     <row r="224">
       <c r="A224" t="n" s="10">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B224" t="s" s="7">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C224" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D224" t="s" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E224" t="s" s="6">
         <v>2</v>
@@ -4446,16 +4446,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n" s="10">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B225" t="s" s="7">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C225" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D225" t="s" s="7">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="E225" t="s" s="6">
         <v>2</v>
@@ -4466,16 +4466,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n" s="10">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B226" t="s" s="7">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C226" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D226" t="s" s="7">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E226" t="s" s="6">
         <v>2</v>
@@ -4486,16 +4486,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n" s="10">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B227" t="s" s="7">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C227" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D227" t="s" s="7">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E227" t="s" s="6">
         <v>2</v>
@@ -4506,16 +4506,16 @@
     </row>
     <row r="228">
       <c r="A228" t="n" s="10">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="B228" t="s" s="7">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C228" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D228" t="s" s="7">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E228" t="s" s="6">
         <v>2</v>
@@ -4526,218 +4526,218 @@
     </row>
     <row r="229">
       <c r="A229" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B229" t="s" s="7">
+        <v>72</v>
+      </c>
+      <c r="C229" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D229" t="s" s="7">
+        <v>73</v>
+      </c>
+      <c r="E229" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F229" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B230" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C230" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D230" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E230" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F230" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B231" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C231" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D231" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="E231" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F231" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B232" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="C232" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D232" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E232" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F232" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B229" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="C229" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D229" t="s" s="7">
+      <c r="B233" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="E229" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F229" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s" s="8">
+      <c r="C233" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D233" t="s" s="7">
         <v>59</v>
       </c>
-      <c r="B230" t="s" s="8">
+      <c r="E233" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F233" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="8">
         <v>60</v>
       </c>
-      <c r="C230" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D230" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E230" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F230" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231"/>
-    <row r="232"/>
-    <row r="233">
-      <c r="A233" t="s" s="4">
+      <c r="B234" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="C234" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D234" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E234" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F234" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237">
+      <c r="A237" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B233" t="s" s="4">
-        <v>73</v>
-      </c>
-      <c r="C233" t="s" s="4">
+      <c r="B237" t="s" s="4">
+        <v>74</v>
+      </c>
+      <c r="C237" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D233" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E233" t="s" s="4">
+      <c r="D237" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E237" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F233" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s" s="9">
+      <c r="F237" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B234" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C234" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D234" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E234" t="s" s="9">
+      <c r="B238" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C238" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D238" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E238" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F234" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s" s="8">
+      <c r="F238" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B235" t="s" s="8">
+      <c r="B239" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C235" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D235" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E235" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F235" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s" s="5">
+      <c r="C239" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D239" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E239" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F239" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B236" t="s" s="5">
+      <c r="B240" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C236" t="s" s="5">
+      <c r="C240" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D236" t="s" s="5">
+      <c r="D240" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E236" t="s" s="5">
+      <c r="E240" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F236" t="s" s="5">
+      <c r="F240" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B237" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C237" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D237" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E237" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F237" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B238" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C238" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D238" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E238" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F238" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B239" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C239" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D239" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E239" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F239" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B240" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C240" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D240" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E240" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F240" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B241" t="s" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C241" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D241" t="s" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E241" t="s" s="6">
         <v>2</v>
@@ -4748,16 +4748,16 @@
     </row>
     <row r="242">
       <c r="A242" t="n" s="10">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B242" t="s" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C242" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D242" t="s" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E242" t="s" s="6">
         <v>2</v>
@@ -4768,16 +4768,16 @@
     </row>
     <row r="243">
       <c r="A243" t="n" s="10">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B243" t="s" s="7">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C243" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D243" t="s" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E243" t="s" s="6">
         <v>2</v>
@@ -4788,16 +4788,16 @@
     </row>
     <row r="244">
       <c r="A244" t="n" s="10">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B244" t="s" s="7">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C244" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D244" t="s" s="7">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="E244" t="s" s="6">
         <v>2</v>
@@ -4808,16 +4808,16 @@
     </row>
     <row r="245">
       <c r="A245" t="n" s="10">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B245" t="s" s="7">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C245" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D245" t="s" s="7">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E245" t="s" s="6">
         <v>2</v>
@@ -4828,16 +4828,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n" s="10">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B246" t="s" s="7">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C246" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D246" t="s" s="7">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E246" t="s" s="6">
         <v>2</v>
@@ -4848,16 +4848,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n" s="10">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="B247" t="s" s="7">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C247" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D247" t="s" s="7">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E247" t="s" s="6">
         <v>2</v>
@@ -4868,218 +4868,218 @@
     </row>
     <row r="248">
       <c r="A248" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B248" t="s" s="7">
+        <v>72</v>
+      </c>
+      <c r="C248" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D248" t="s" s="7">
+        <v>73</v>
+      </c>
+      <c r="E248" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F248" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B249" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C249" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D249" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E249" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F249" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B250" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C250" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D250" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="E250" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F250" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B251" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="C251" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D251" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E251" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F251" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B248" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="C248" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D248" t="s" s="7">
+      <c r="B252" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="E248" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F248" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="s" s="8">
+      <c r="C252" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D252" t="s" s="7">
         <v>59</v>
       </c>
-      <c r="B249" t="s" s="8">
+      <c r="E252" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F252" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="8">
         <v>60</v>
       </c>
-      <c r="C249" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D249" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E249" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F249" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250"/>
-    <row r="251"/>
-    <row r="252">
-      <c r="A252" t="s" s="4">
+      <c r="B253" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="C253" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D253" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E253" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F253" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256">
+      <c r="A256" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B252" t="s" s="4">
-        <v>74</v>
-      </c>
-      <c r="C252" t="s" s="4">
+      <c r="B256" t="s" s="4">
+        <v>75</v>
+      </c>
+      <c r="C256" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D252" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E252" t="s" s="4">
+      <c r="D256" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E256" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F252" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="s" s="9">
+      <c r="F256" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B253" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C253" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D253" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E253" t="s" s="9">
+      <c r="B257" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C257" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D257" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E257" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F253" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="s" s="8">
+      <c r="F257" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B254" t="s" s="8">
+      <c r="B258" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C254" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D254" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E254" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F254" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="s" s="5">
+      <c r="C258" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D258" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E258" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F258" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B255" t="s" s="5">
+      <c r="B259" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C255" t="s" s="5">
+      <c r="C259" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D255" t="s" s="5">
+      <c r="D259" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E255" t="s" s="5">
+      <c r="E259" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F255" t="s" s="5">
+      <c r="F259" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B256" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C256" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D256" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E256" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F256" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B257" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C257" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D257" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E257" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F257" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B258" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C258" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D258" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E258" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F258" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B259" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C259" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D259" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E259" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F259" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B260" t="s" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C260" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D260" t="s" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E260" t="s" s="6">
         <v>2</v>
@@ -5090,16 +5090,16 @@
     </row>
     <row r="261">
       <c r="A261" t="n" s="10">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B261" t="s" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C261" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D261" t="s" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E261" t="s" s="6">
         <v>2</v>
@@ -5110,16 +5110,16 @@
     </row>
     <row r="262">
       <c r="A262" t="n" s="10">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B262" t="s" s="7">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C262" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D262" t="s" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E262" t="s" s="6">
         <v>2</v>
@@ -5130,16 +5130,16 @@
     </row>
     <row r="263">
       <c r="A263" t="n" s="10">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B263" t="s" s="7">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C263" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D263" t="s" s="7">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="E263" t="s" s="6">
         <v>2</v>
@@ -5150,16 +5150,16 @@
     </row>
     <row r="264">
       <c r="A264" t="n" s="10">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B264" t="s" s="7">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C264" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D264" t="s" s="7">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E264" t="s" s="6">
         <v>2</v>
@@ -5170,16 +5170,16 @@
     </row>
     <row r="265">
       <c r="A265" t="n" s="10">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B265" t="s" s="7">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C265" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D265" t="s" s="7">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E265" t="s" s="6">
         <v>2</v>
@@ -5190,16 +5190,16 @@
     </row>
     <row r="266">
       <c r="A266" t="n" s="10">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="B266" t="s" s="7">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C266" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D266" t="s" s="7">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E266" t="s" s="6">
         <v>2</v>
@@ -5210,218 +5210,218 @@
     </row>
     <row r="267">
       <c r="A267" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B267" t="s" s="7">
+        <v>72</v>
+      </c>
+      <c r="C267" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D267" t="s" s="7">
+        <v>73</v>
+      </c>
+      <c r="E267" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F267" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B268" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C268" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D268" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E268" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F268" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B269" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C269" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D269" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="E269" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F269" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B270" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="C270" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D270" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E270" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F270" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B267" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="C267" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D267" t="s" s="7">
+      <c r="B271" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="E267" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F267" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="s" s="8">
+      <c r="C271" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D271" t="s" s="7">
         <v>59</v>
       </c>
-      <c r="B268" t="s" s="8">
+      <c r="E271" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F271" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="8">
         <v>60</v>
       </c>
-      <c r="C268" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D268" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E268" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F268" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269"/>
-    <row r="270"/>
-    <row r="271">
-      <c r="A271" t="s" s="4">
+      <c r="B272" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="C272" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D272" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E272" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F272" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275">
+      <c r="A275" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B271" t="s" s="4">
-        <v>75</v>
-      </c>
-      <c r="C271" t="s" s="4">
+      <c r="B275" t="s" s="4">
+        <v>76</v>
+      </c>
+      <c r="C275" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D271" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E271" t="s" s="4">
+      <c r="D275" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E275" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F271" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="s" s="9">
+      <c r="F275" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B272" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C272" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D272" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E272" t="s" s="9">
+      <c r="B276" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C276" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D276" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E276" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F272" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="s" s="8">
+      <c r="F276" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B273" t="s" s="8">
+      <c r="B277" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C273" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D273" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E273" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F273" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="s" s="5">
+      <c r="C277" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D277" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E277" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F277" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B274" t="s" s="5">
+      <c r="B278" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C274" t="s" s="5">
+      <c r="C278" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D274" t="s" s="5">
+      <c r="D278" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E274" t="s" s="5">
+      <c r="E278" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F274" t="s" s="5">
+      <c r="F278" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B275" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C275" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D275" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E275" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F275" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B276" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C276" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D276" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E276" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F276" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B277" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C277" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D277" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E277" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F277" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B278" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C278" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D278" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E278" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F278" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B279" t="s" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C279" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D279" t="s" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E279" t="s" s="6">
         <v>2</v>
@@ -5432,16 +5432,16 @@
     </row>
     <row r="280">
       <c r="A280" t="n" s="10">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B280" t="s" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C280" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D280" t="s" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E280" t="s" s="6">
         <v>2</v>
@@ -5452,16 +5452,16 @@
     </row>
     <row r="281">
       <c r="A281" t="n" s="10">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B281" t="s" s="7">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C281" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D281" t="s" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E281" t="s" s="6">
         <v>2</v>
@@ -5472,16 +5472,16 @@
     </row>
     <row r="282">
       <c r="A282" t="n" s="10">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B282" t="s" s="7">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C282" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D282" t="s" s="7">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="E282" t="s" s="6">
         <v>2</v>
@@ -5492,16 +5492,16 @@
     </row>
     <row r="283">
       <c r="A283" t="n" s="10">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B283" t="s" s="7">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C283" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D283" t="s" s="7">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E283" t="s" s="6">
         <v>2</v>
@@ -5512,16 +5512,16 @@
     </row>
     <row r="284">
       <c r="A284" t="n" s="10">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B284" t="s" s="7">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C284" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D284" t="s" s="7">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E284" t="s" s="6">
         <v>2</v>
@@ -5532,16 +5532,16 @@
     </row>
     <row r="285">
       <c r="A285" t="n" s="10">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="B285" t="s" s="7">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C285" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D285" t="s" s="7">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E285" t="s" s="6">
         <v>2</v>
@@ -5552,218 +5552,218 @@
     </row>
     <row r="286">
       <c r="A286" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B286" t="s" s="7">
+        <v>72</v>
+      </c>
+      <c r="C286" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D286" t="s" s="7">
+        <v>73</v>
+      </c>
+      <c r="E286" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F286" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B287" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C287" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D287" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E287" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F287" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B288" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C288" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D288" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="E288" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F288" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B289" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="C289" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D289" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E289" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F289" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B286" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="C286" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D286" t="s" s="7">
+      <c r="B290" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="E286" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F286" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="s" s="8">
+      <c r="C290" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D290" t="s" s="7">
         <v>59</v>
       </c>
-      <c r="B287" t="s" s="8">
+      <c r="E290" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F290" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="8">
         <v>60</v>
       </c>
-      <c r="C287" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D287" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E287" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F287" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288"/>
-    <row r="289"/>
-    <row r="290">
-      <c r="A290" t="s" s="4">
+      <c r="B291" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="C291" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D291" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E291" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F291" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294">
+      <c r="A294" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B290" t="s" s="4">
-        <v>76</v>
-      </c>
-      <c r="C290" t="s" s="4">
+      <c r="B294" t="s" s="4">
+        <v>77</v>
+      </c>
+      <c r="C294" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D290" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E290" t="s" s="4">
+      <c r="D294" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E294" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F290" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s" s="9">
+      <c r="F294" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B291" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C291" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D291" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E291" t="s" s="9">
+      <c r="B295" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C295" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D295" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E295" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F291" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="s" s="8">
+      <c r="F295" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B292" t="s" s="8">
+      <c r="B296" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C292" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D292" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E292" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F292" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="s" s="5">
+      <c r="C296" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D296" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E296" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F296" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B293" t="s" s="5">
+      <c r="B297" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C293" t="s" s="5">
+      <c r="C297" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D293" t="s" s="5">
+      <c r="D297" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E293" t="s" s="5">
+      <c r="E297" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F293" t="s" s="5">
+      <c r="F297" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B294" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C294" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D294" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E294" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F294" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B295" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C295" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D295" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E295" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F295" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B296" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C296" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D296" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E296" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F296" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B297" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C297" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D297" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E297" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F297" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B298" t="s" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C298" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D298" t="s" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E298" t="s" s="6">
         <v>2</v>
@@ -5774,16 +5774,16 @@
     </row>
     <row r="299">
       <c r="A299" t="n" s="10">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B299" t="s" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C299" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D299" t="s" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E299" t="s" s="6">
         <v>2</v>
@@ -5794,16 +5794,16 @@
     </row>
     <row r="300">
       <c r="A300" t="n" s="10">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B300" t="s" s="7">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C300" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D300" t="s" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E300" t="s" s="6">
         <v>2</v>
@@ -5814,16 +5814,16 @@
     </row>
     <row r="301">
       <c r="A301" t="n" s="10">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B301" t="s" s="7">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C301" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D301" t="s" s="7">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="E301" t="s" s="6">
         <v>2</v>
@@ -5834,16 +5834,16 @@
     </row>
     <row r="302">
       <c r="A302" t="n" s="10">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B302" t="s" s="7">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C302" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D302" t="s" s="7">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E302" t="s" s="6">
         <v>2</v>
@@ -5854,16 +5854,16 @@
     </row>
     <row r="303">
       <c r="A303" t="n" s="10">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B303" t="s" s="7">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C303" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D303" t="s" s="7">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E303" t="s" s="6">
         <v>2</v>
@@ -5874,16 +5874,16 @@
     </row>
     <row r="304">
       <c r="A304" t="n" s="10">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="B304" t="s" s="7">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C304" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D304" t="s" s="7">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E304" t="s" s="6">
         <v>2</v>
@@ -5894,41 +5894,121 @@
     </row>
     <row r="305">
       <c r="A305" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B305" t="s" s="7">
+        <v>78</v>
+      </c>
+      <c r="C305" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D305" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E305" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F305" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B306" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C306" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D306" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="E306" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F306" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B307" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C307" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D307" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="E307" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F307" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B308" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="C308" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D308" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="E308" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F308" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B305" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="C305" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D305" t="s" s="7">
+      <c r="B309" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="E305" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F305" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="s" s="8">
+      <c r="C309" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D309" t="s" s="7">
         <v>59</v>
       </c>
-      <c r="B306" t="s" s="8">
+      <c r="E309" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F309" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="8">
         <v>60</v>
       </c>
-      <c r="C306" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D306" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E306" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F306" t="s" s="8">
+      <c r="B310" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="C310" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D310" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E310" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F310" t="s" s="8">
         <v>2</v>
       </c>
     </row>
@@ -5937,51 +6017,51 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="B196:D196"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B215:D215"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="B230:F230"/>
-    <mergeCell ref="B234:D234"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B249:F249"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="B254:F254"/>
-    <mergeCell ref="B268:F268"/>
-    <mergeCell ref="B272:D272"/>
-    <mergeCell ref="B273:F273"/>
-    <mergeCell ref="B287:F287"/>
-    <mergeCell ref="B291:D291"/>
-    <mergeCell ref="B292:F292"/>
-    <mergeCell ref="B306:F306"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="B200:D200"/>
+    <mergeCell ref="B201:F201"/>
+    <mergeCell ref="B215:F215"/>
+    <mergeCell ref="B219:D219"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="B238:D238"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="B253:F253"/>
+    <mergeCell ref="B257:D257"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B276:D276"/>
+    <mergeCell ref="B277:F277"/>
+    <mergeCell ref="B291:F291"/>
+    <mergeCell ref="B295:D295"/>
+    <mergeCell ref="B296:F296"/>
+    <mergeCell ref="B310:F310"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/UC001 - Calcular Desconto de Produto--ART-.xlsx
+++ b/output/xlsx/UC001 - Calcular Desconto de Produto--ART-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="78">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -131,13 +131,13 @@
     <t>Usuário do Sistema altera para tipo de cliente C</t>
   </si>
   <si>
-    <t>SYSTEM registra o tipo de cliente selecionado</t>
-  </si>
-  <si>
-    <t>Usuário do Sistema informa a quantidade de produtos menor ou igual a zero</t>
-  </si>
-  <si>
-    <t>SYSTEM registra a quantidade informada</t>
+    <t>SYSTEM apresenta o tipo de cliente selecionado</t>
+  </si>
+  <si>
+    <t>Usuário do Sistema informa a quantidade de produtos igual ou maior que 1000 unidades</t>
+  </si>
+  <si>
+    <t>SYSTEM aplica fator de desconto para quantidade &gt;= 1000: Cliente A (1,00), B (0,95), C (0,90)</t>
   </si>
   <si>
     <t>Usuário do Sistema clica no botão 'Calcular Desconto!'</t>
@@ -167,10 +167,58 @@
     <t>TC5</t>
   </si>
   <si>
-    <t>Usuário do Sistema informa a quantidade de produtos igual ou maior que 1000 unidades</t>
-  </si>
-  <si>
-    <t>SYSTEM aplica fator de desconto para quantidade &gt;= 1000: Cliente A (1,00), B (0,95), C (0,90)</t>
+    <t>Usuário do Sistema informa a quantidade de produtos entre 100 e 999 unidades</t>
+  </si>
+  <si>
+    <t>SYSTEM aplica fator de desconto para 100 &lt;= quantidade &lt; 1000: Cliente A (0,95), B (0,90), C (0,85)</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>Usuário do Sistema informa a quantidade de produtos menor que 100 unidades</t>
+  </si>
+  <si>
+    <t>SYSTEM aplica fator de desconto para quantidade &lt; 100: Cliente A (0,90), B (0,85), C (0,80)</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>Usuário do Sistema informa a quantidade de produtos</t>
+  </si>
+  <si>
+    <t>SYSTEM apresenta a quantidade informada</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>TC16</t>
+  </si>
+  <si>
+    <t>TC17</t>
   </si>
   <si>
     <t>SYSTEM processa o cálculo do desconto baseado no tipo de cliente e quantidade</t>
@@ -198,57 +246,6 @@
   </si>
   <si>
     <t>Usuário visualiza o desconto calculado com todos os detalhes e pode realizar novo cálculo</t>
-  </si>
-  <si>
-    <t>TC6</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>TC8</t>
-  </si>
-  <si>
-    <t>TC9</t>
-  </si>
-  <si>
-    <t>Usuário do Sistema informa a quantidade de produtos entre 100 e 999 unidades</t>
-  </si>
-  <si>
-    <t>SYSTEM aplica fator de desconto para 100 &lt;= quantidade &lt; 1000: Cliente A (0,95), B (0,90), C (0,85)</t>
-  </si>
-  <si>
-    <t>TC10</t>
-  </si>
-  <si>
-    <t>TC11</t>
-  </si>
-  <si>
-    <t>TC12</t>
-  </si>
-  <si>
-    <t>TC13</t>
-  </si>
-  <si>
-    <t>Usuário do Sistema informa a quantidade de produtos menor que 100 unidades</t>
-  </si>
-  <si>
-    <t>SYSTEM aplica fator de desconto para quantidade &lt; 100: Cliente A (0,90), B (0,85), C (0,80)</t>
-  </si>
-  <si>
-    <t>TC14</t>
-  </si>
-  <si>
-    <t>TC15</t>
-  </si>
-  <si>
-    <t>TC16</t>
-  </si>
-  <si>
-    <t>TC17</t>
-  </si>
-  <si>
-    <t>Usuário do Sistema informa a quantidade de produtos</t>
   </si>
 </sst>
 </file>
@@ -444,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F310"/>
+  <dimension ref="A1:F262"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -1819,189 +1816,189 @@
         <v>2</v>
       </c>
       <c r="D78" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81">
+      <c r="A81" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s" s="4">
         <v>53</v>
       </c>
-      <c r="E78" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F78" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="B79" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="C79" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="E79" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F79" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="B80" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="C80" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D80" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="E80" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F80" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B81" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="C81" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D81" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="E81" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F81" t="s" s="6">
+      <c r="C81" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F81" t="s" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="B82" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="C82" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D82" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E82" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F82" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83"/>
-    <row r="84"/>
+      <c r="A82" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F82" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B83" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B84" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C84" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D84" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E84" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F84" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
     <row r="85">
-      <c r="A85" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B85" t="s" s="4">
-        <v>62</v>
-      </c>
-      <c r="C85" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D85" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E85" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F85" t="s" s="4">
+      <c r="A85" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B85" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C85" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E85" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B86" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C86" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D86" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E86" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F86" t="s" s="9">
+      <c r="A86" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B86" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C86" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E86" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B87" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C87" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D87" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E87" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F87" t="s" s="8">
+      <c r="A87" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B87" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C87" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E87" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B88" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C88" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D88" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E88" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F88" t="s" s="5">
-        <v>25</v>
+      <c r="A88" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B88" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C88" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E88" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F88" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n" s="10">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="B89" t="s" s="7">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C89" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D89" t="s" s="7">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E89" t="s" s="6">
         <v>2</v>
@@ -2012,16 +2009,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n" s="10">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="B90" t="s" s="7">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C90" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D90" t="s" s="7">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E90" t="s" s="6">
         <v>2</v>
@@ -2032,16 +2029,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n" s="10">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="B91" t="s" s="7">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C91" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D91" t="s" s="7">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E91" t="s" s="6">
         <v>2</v>
@@ -2052,16 +2049,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n" s="10">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="B92" t="s" s="7">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C92" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D92" t="s" s="7">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E92" t="s" s="6">
         <v>2</v>
@@ -2072,16 +2069,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n" s="10">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="B93" t="s" s="7">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C93" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D93" t="s" s="7">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E93" t="s" s="6">
         <v>2</v>
@@ -2090,138 +2087,100 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B94" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C94" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D94" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E94" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F94" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B95" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C95" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D95" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E95" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F95" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="94"/>
+    <row r="95"/>
     <row r="96">
-      <c r="A96" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B96" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C96" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D96" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="E96" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F96" t="s" s="6">
+      <c r="A96" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="C96" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F96" t="s" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B97" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C97" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D97" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="E97" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F97" t="s" s="6">
+      <c r="A97" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F97" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="B98" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="C98" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D98" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="E98" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F98" t="s" s="6">
+      <c r="A98" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B98" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C98" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="B99" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="C99" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D99" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="E99" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F99" t="s" s="6">
-        <v>2</v>
+      <c r="A99" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B99" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C99" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D99" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E99" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F99" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n" s="10">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="B100" t="s" s="7">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C100" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D100" t="s" s="7">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="E100" t="s" s="6">
         <v>2</v>
@@ -2231,119 +2190,157 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="B101" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="C101" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D101" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E101" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F101" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102"/>
-    <row r="103"/>
+      <c r="A101" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B101" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C101" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E101" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B102" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C102" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E102" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B103" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C103" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E103" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F103" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="104">
-      <c r="A104" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B104" t="s" s="4">
-        <v>63</v>
-      </c>
-      <c r="C104" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D104" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E104" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F104" t="s" s="4">
+      <c r="A104" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B104" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C104" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E104" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F104" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B105" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C105" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D105" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E105" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F105" t="s" s="9">
+      <c r="A105" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B105" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C105" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E105" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F105" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B106" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C106" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D106" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E106" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F106" t="s" s="8">
+      <c r="A106" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B106" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="C106" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E106" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F106" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B107" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C107" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D107" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E107" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F107" t="s" s="5">
-        <v>25</v>
+      <c r="A107" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B107" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C107" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="E107" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F107" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n" s="10">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="B108" t="s" s="7">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C108" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D108" t="s" s="7">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E108" t="s" s="6">
         <v>2</v>
@@ -2352,138 +2349,100 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B109" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C109" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D109" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E109" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F109" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B110" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C110" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D110" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E110" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F110" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="109"/>
+    <row r="110"/>
     <row r="111">
-      <c r="A111" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B111" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C111" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D111" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E111" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F111" t="s" s="6">
+      <c r="A111" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B111" t="s" s="4">
+        <v>55</v>
+      </c>
+      <c r="C111" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D111" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F111" t="s" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B112" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C112" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D112" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E112" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F112" t="s" s="6">
+      <c r="A112" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B112" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C112" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F112" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B113" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C113" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D113" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E113" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F113" t="s" s="6">
+      <c r="A113" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B113" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C113" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E113" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F113" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B114" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="C114" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D114" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E114" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F114" t="s" s="6">
-        <v>2</v>
+      <c r="A114" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B114" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C114" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D114" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E114" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F114" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n" s="10">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="B115" t="s" s="7">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C115" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D115" t="s" s="7">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E115" t="s" s="6">
         <v>2</v>
@@ -2494,16 +2453,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n" s="10">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="B116" t="s" s="7">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C116" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D116" t="s" s="7">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E116" t="s" s="6">
         <v>2</v>
@@ -2514,16 +2473,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n" s="10">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="B117" t="s" s="7">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C117" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D117" t="s" s="7">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E117" t="s" s="6">
         <v>2</v>
@@ -2534,16 +2493,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n" s="10">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="B118" t="s" s="7">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C118" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D118" t="s" s="7">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E118" t="s" s="6">
         <v>2</v>
@@ -2554,16 +2513,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n" s="10">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="B119" t="s" s="7">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C119" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D119" t="s" s="7">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E119" t="s" s="6">
         <v>2</v>
@@ -2573,179 +2532,179 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="B120" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="C120" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D120" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E120" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F120" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121"/>
-    <row r="122"/>
+      <c r="A120" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B120" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C120" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E120" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F120" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B121" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="C121" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E121" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F121" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B122" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C122" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="E122" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F122" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="123">
-      <c r="A123" t="s" s="4">
+      <c r="A123" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B123" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C123" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E123" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F123" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126">
+      <c r="A126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B123" t="s" s="4">
-        <v>64</v>
-      </c>
-      <c r="C123" t="s" s="4">
+      <c r="B126" t="s" s="4">
+        <v>56</v>
+      </c>
+      <c r="C126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D123" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E123" t="s" s="4">
+      <c r="D126" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F123" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s" s="9">
+      <c r="F126" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B124" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C124" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D124" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E124" t="s" s="9">
+      <c r="B127" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C127" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E127" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F124" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="8">
+      <c r="F127" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B125" t="s" s="8">
+      <c r="B128" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C125" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D125" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E125" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F125" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="5">
+      <c r="C128" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E128" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F128" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B126" t="s" s="5">
+      <c r="B129" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C126" t="s" s="5">
+      <c r="C129" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D126" t="s" s="5">
+      <c r="D129" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E126" t="s" s="5">
+      <c r="E129" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F126" t="s" s="5">
+      <c r="F129" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B127" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C127" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D127" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E127" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F127" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B128" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C128" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D128" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E128" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F128" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B129" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C129" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D129" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E129" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F129" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n" s="10">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B130" t="s" s="7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C130" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D130" t="s" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E130" t="s" s="6">
         <v>2</v>
@@ -2756,16 +2715,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n" s="10">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B131" t="s" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C131" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D131" t="s" s="7">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E131" t="s" s="6">
         <v>2</v>
@@ -2776,16 +2735,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n" s="10">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B132" t="s" s="7">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C132" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D132" t="s" s="7">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E132" t="s" s="6">
         <v>2</v>
@@ -2796,16 +2755,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n" s="10">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B133" t="s" s="7">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C133" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D133" t="s" s="7">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E133" t="s" s="6">
         <v>2</v>
@@ -2816,16 +2775,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n" s="10">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="B134" t="s" s="7">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C134" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D134" t="s" s="7">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E134" t="s" s="6">
         <v>2</v>
@@ -2836,16 +2795,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n" s="10">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="B135" t="s" s="7">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C135" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D135" t="s" s="7">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E135" t="s" s="6">
         <v>2</v>
@@ -2856,16 +2815,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n" s="10">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="B136" t="s" s="7">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C136" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D136" t="s" s="7">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E136" t="s" s="6">
         <v>2</v>
@@ -2876,16 +2835,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n" s="10">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="B137" t="s" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C137" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D137" t="s" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E137" t="s" s="6">
         <v>2</v>
@@ -2896,138 +2855,138 @@
     </row>
     <row r="138">
       <c r="A138" t="n" s="10">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="B138" t="s" s="7">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C138" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D138" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E138" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F138" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141">
+      <c r="A141" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B141" t="s" s="4">
         <v>59</v>
       </c>
-      <c r="E138" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F138" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="B139" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="C139" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D139" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E139" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F139" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140"/>
-    <row r="141"/>
+      <c r="C141" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D141" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E141" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F141" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="142">
-      <c r="A142" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B142" t="s" s="4">
-        <v>65</v>
-      </c>
-      <c r="C142" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D142" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E142" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F142" t="s" s="4">
+      <c r="A142" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B142" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C142" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E142" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F142" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B143" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C143" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D143" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E143" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F143" t="s" s="9">
+      <c r="A143" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B143" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C143" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E143" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F143" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B144" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C144" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D144" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E144" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F144" t="s" s="8">
-        <v>2</v>
+      <c r="A144" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B144" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C144" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D144" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E144" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F144" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B145" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C145" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D145" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E145" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F145" t="s" s="5">
-        <v>25</v>
+      <c r="A145" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B145" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C145" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E145" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F145" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B146" t="s" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C146" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D146" t="s" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E146" t="s" s="6">
         <v>2</v>
@@ -3038,16 +2997,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n" s="10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B147" t="s" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C147" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D147" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E147" t="s" s="6">
         <v>2</v>
@@ -3058,16 +3017,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n" s="10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B148" t="s" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C148" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D148" t="s" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E148" t="s" s="6">
         <v>2</v>
@@ -3078,16 +3037,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n" s="10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B149" t="s" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C149" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D149" t="s" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E149" t="s" s="6">
         <v>2</v>
@@ -3098,16 +3057,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n" s="10">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B150" t="s" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C150" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D150" t="s" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E150" t="s" s="6">
         <v>2</v>
@@ -3118,16 +3077,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n" s="10">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B151" t="s" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C151" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D151" t="s" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E151" t="s" s="6">
         <v>2</v>
@@ -3138,16 +3097,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n" s="10">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B152" t="s" s="7">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C152" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D152" t="s" s="7">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E152" t="s" s="6">
         <v>2</v>
@@ -3158,16 +3117,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n" s="10">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B153" t="s" s="7">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C153" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D153" t="s" s="7">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E153" t="s" s="6">
         <v>2</v>
@@ -3176,92 +3135,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B154" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C154" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D154" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="E154" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F154" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="B155" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="C155" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D155" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="E155" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F155" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="154"/>
+    <row r="155"/>
     <row r="156">
-      <c r="A156" t="n" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="B156" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="C156" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D156" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="E156" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F156" t="s" s="6">
+      <c r="A156" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B156" t="s" s="4">
+        <v>60</v>
+      </c>
+      <c r="C156" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D156" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E156" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F156" t="s" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B157" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="C157" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D157" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="E157" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F157" t="s" s="6">
+      <c r="A157" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B157" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C157" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D157" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E157" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F157" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="8">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B158" t="s" s="8">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C158" t="s" s="8">
         <v>2</v>
@@ -3276,100 +3197,138 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159"/>
-    <row r="160"/>
+    <row r="159">
+      <c r="A159" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B159" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C159" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D159" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E159" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F159" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B160" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C160" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E160" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F160" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="161">
-      <c r="A161" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B161" t="s" s="4">
-        <v>68</v>
-      </c>
-      <c r="C161" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D161" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E161" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F161" t="s" s="4">
+      <c r="A161" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B161" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C161" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E161" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F161" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B162" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C162" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D162" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E162" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F162" t="s" s="9">
+      <c r="A162" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B162" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C162" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D162" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E162" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F162" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B163" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C163" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D163" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E163" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F163" t="s" s="8">
+      <c r="A163" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B163" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C163" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E163" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F163" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B164" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C164" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D164" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E164" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F164" t="s" s="5">
-        <v>25</v>
+      <c r="A164" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B164" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C164" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D164" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E164" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F164" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n" s="10">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B165" t="s" s="7">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C165" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D165" t="s" s="7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E165" t="s" s="6">
         <v>2</v>
@@ -3380,16 +3339,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n" s="10">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="B166" t="s" s="7">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C166" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D166" t="s" s="7">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E166" t="s" s="6">
         <v>2</v>
@@ -3400,16 +3359,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n" s="10">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="B167" t="s" s="7">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C167" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D167" t="s" s="7">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E167" t="s" s="6">
         <v>2</v>
@@ -3420,16 +3379,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n" s="10">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="B168" t="s" s="7">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C168" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D168" t="s" s="7">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E168" t="s" s="6">
         <v>2</v>
@@ -3438,138 +3397,100 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B169" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C169" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D169" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E169" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F169" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B170" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C170" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D170" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E170" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F170" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="169"/>
+    <row r="170"/>
     <row r="171">
-      <c r="A171" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B171" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C171" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D171" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E171" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F171" t="s" s="6">
+      <c r="A171" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B171" t="s" s="4">
+        <v>61</v>
+      </c>
+      <c r="C171" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D171" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E171" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F171" t="s" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B172" t="s" s="7">
-        <v>66</v>
-      </c>
-      <c r="C172" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D172" t="s" s="7">
-        <v>67</v>
-      </c>
-      <c r="E172" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F172" t="s" s="6">
+      <c r="A172" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B172" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C172" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D172" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E172" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F172" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B173" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C173" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D173" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="E173" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F173" t="s" s="6">
+      <c r="A173" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B173" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C173" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E173" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F173" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="B174" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="C174" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D174" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="E174" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F174" t="s" s="6">
-        <v>2</v>
+      <c r="A174" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B174" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C174" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D174" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E174" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F174" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n" s="10">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="B175" t="s" s="7">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C175" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D175" t="s" s="7">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E175" t="s" s="6">
         <v>2</v>
@@ -3580,258 +3501,258 @@
     </row>
     <row r="176">
       <c r="A176" t="n" s="10">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="B176" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C176" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D176" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E176" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F176" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B177" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C177" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E177" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F177" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B178" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C178" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D178" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E178" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F178" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B179" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C179" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D179" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E179" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F179" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B180" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C180" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D180" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E180" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F180" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B181" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="C181" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D181" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E181" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F181" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B182" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="C182" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D182" t="s" s="7">
         <v>58</v>
       </c>
-      <c r="C176" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D176" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="E176" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F176" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="B177" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="C177" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D177" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E177" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F177" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180">
-      <c r="A180" t="s" s="4">
+      <c r="E182" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F182" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B183" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C183" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D183" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E183" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F183" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186">
+      <c r="A186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B180" t="s" s="4">
-        <v>69</v>
-      </c>
-      <c r="C180" t="s" s="4">
+      <c r="B186" t="s" s="4">
+        <v>62</v>
+      </c>
+      <c r="C186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D180" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E180" t="s" s="4">
+      <c r="D186" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F180" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s" s="9">
+      <c r="F186" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B181" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C181" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D181" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E181" t="s" s="9">
+      <c r="B187" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C187" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D187" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E187" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F181" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s" s="8">
+      <c r="F187" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B182" t="s" s="8">
+      <c r="B188" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C182" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D182" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E182" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F182" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s" s="5">
+      <c r="C188" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D188" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E188" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F188" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B183" t="s" s="5">
+      <c r="B189" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C183" t="s" s="5">
+      <c r="C189" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D183" t="s" s="5">
+      <c r="D189" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E183" t="s" s="5">
+      <c r="E189" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F183" t="s" s="5">
+      <c r="F189" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B184" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C184" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D184" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E184" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F184" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B185" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C185" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D185" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E185" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F185" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B186" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C186" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D186" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E186" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F186" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B187" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C187" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D187" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E187" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F187" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B188" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C188" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D188" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E188" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F188" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B189" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C189" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D189" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E189" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F189" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n" s="10">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="B190" t="s" s="7">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C190" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D190" t="s" s="7">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E190" t="s" s="6">
         <v>2</v>
@@ -3842,16 +3763,16 @@
     </row>
     <row r="191">
       <c r="A191" t="n" s="10">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="B191" t="s" s="7">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C191" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D191" t="s" s="7">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="E191" t="s" s="6">
         <v>2</v>
@@ -3862,16 +3783,16 @@
     </row>
     <row r="192">
       <c r="A192" t="n" s="10">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="B192" t="s" s="7">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C192" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D192" t="s" s="7">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E192" t="s" s="6">
         <v>2</v>
@@ -3882,16 +3803,16 @@
     </row>
     <row r="193">
       <c r="A193" t="n" s="10">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="B193" t="s" s="7">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C193" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D193" t="s" s="7">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E193" t="s" s="6">
         <v>2</v>
@@ -3902,16 +3823,16 @@
     </row>
     <row r="194">
       <c r="A194" t="n" s="10">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="B194" t="s" s="7">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C194" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D194" t="s" s="7">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E194" t="s" s="6">
         <v>2</v>
@@ -3922,16 +3843,16 @@
     </row>
     <row r="195">
       <c r="A195" t="n" s="10">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="B195" t="s" s="7">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C195" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D195" t="s" s="7">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E195" t="s" s="6">
         <v>2</v>
@@ -3941,159 +3862,159 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="B196" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="C196" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D196" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E196" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F196" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199">
-      <c r="A199" t="s" s="4">
+      <c r="A196" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B196" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="C196" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D196" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E196" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F196" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B197" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="C197" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D197" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="E197" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F197" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B198" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C198" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D198" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E198" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F198" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201">
+      <c r="A201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B199" t="s" s="4">
-        <v>70</v>
-      </c>
-      <c r="C199" t="s" s="4">
+      <c r="B201" t="s" s="4">
+        <v>65</v>
+      </c>
+      <c r="C201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D199" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E199" t="s" s="4">
+      <c r="D201" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F199" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s" s="9">
+      <c r="F201" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B200" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C200" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D200" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E200" t="s" s="9">
+      <c r="B202" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C202" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D202" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E202" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F200" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s" s="8">
+      <c r="F202" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B201" t="s" s="8">
+      <c r="B203" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C201" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D201" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E201" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F201" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s" s="5">
+      <c r="C203" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D203" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E203" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F203" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B202" t="s" s="5">
+      <c r="B204" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C202" t="s" s="5">
+      <c r="C204" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D202" t="s" s="5">
+      <c r="D204" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E202" t="s" s="5">
+      <c r="E204" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F202" t="s" s="5">
+      <c r="F204" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B203" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C203" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D203" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E203" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F203" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B204" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C204" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D204" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E204" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F204" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n" s="10">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B205" t="s" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C205" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D205" t="s" s="7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E205" t="s" s="6">
         <v>2</v>
@@ -4104,16 +4025,16 @@
     </row>
     <row r="206">
       <c r="A206" t="n" s="10">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B206" t="s" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C206" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D206" t="s" s="7">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E206" t="s" s="6">
         <v>2</v>
@@ -4124,16 +4045,16 @@
     </row>
     <row r="207">
       <c r="A207" t="n" s="10">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B207" t="s" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C207" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D207" t="s" s="7">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E207" t="s" s="6">
         <v>2</v>
@@ -4144,16 +4065,16 @@
     </row>
     <row r="208">
       <c r="A208" t="n" s="10">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B208" t="s" s="7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C208" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D208" t="s" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E208" t="s" s="6">
         <v>2</v>
@@ -4164,16 +4085,16 @@
     </row>
     <row r="209">
       <c r="A209" t="n" s="10">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B209" t="s" s="7">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C209" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D209" t="s" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E209" t="s" s="6">
         <v>2</v>
@@ -4184,16 +4105,16 @@
     </row>
     <row r="210">
       <c r="A210" t="n" s="10">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B210" t="s" s="7">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C210" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D210" t="s" s="7">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E210" t="s" s="6">
         <v>2</v>
@@ -4204,16 +4125,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n" s="10">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="B211" t="s" s="7">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C211" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D211" t="s" s="7">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E211" t="s" s="6">
         <v>2</v>
@@ -4224,16 +4145,16 @@
     </row>
     <row r="212">
       <c r="A212" t="n" s="10">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="B212" t="s" s="7">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C212" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D212" t="s" s="7">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E212" t="s" s="6">
         <v>2</v>
@@ -4244,16 +4165,16 @@
     </row>
     <row r="213">
       <c r="A213" t="n" s="10">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="B213" t="s" s="7">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C213" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D213" t="s" s="7">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E213" t="s" s="6">
         <v>2</v>
@@ -4262,140 +4183,140 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B214" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="C214" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D214" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="E214" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F214" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="B215" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="C215" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D215" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E215" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F215" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216"/>
-    <row r="217"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216">
+      <c r="A216" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B216" t="s" s="4">
+        <v>66</v>
+      </c>
+      <c r="C216" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D216" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E216" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F216" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B217" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C217" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D217" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E217" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F217" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
     <row r="218">
-      <c r="A218" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B218" t="s" s="4">
-        <v>71</v>
-      </c>
-      <c r="C218" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D218" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E218" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F218" t="s" s="4">
+      <c r="A218" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B218" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C218" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D218" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E218" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F218" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B219" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C219" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D219" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E219" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F219" t="s" s="9">
-        <v>2</v>
+      <c r="A219" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B219" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C219" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D219" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E219" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F219" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B220" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C220" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D220" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E220" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F220" t="s" s="8">
+      <c r="A220" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B220" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C220" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D220" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E220" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F220" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B221" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C221" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D221" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E221" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F221" t="s" s="5">
-        <v>25</v>
+      <c r="A221" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B221" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C221" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D221" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E221" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F221" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n" s="10">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="B222" t="s" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C222" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D222" t="s" s="7">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E222" t="s" s="6">
         <v>2</v>
@@ -4406,16 +4327,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n" s="10">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B223" t="s" s="7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C223" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D223" t="s" s="7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E223" t="s" s="6">
         <v>2</v>
@@ -4426,16 +4347,16 @@
     </row>
     <row r="224">
       <c r="A224" t="n" s="10">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B224" t="s" s="7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C224" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D224" t="s" s="7">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E224" t="s" s="6">
         <v>2</v>
@@ -4446,16 +4367,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n" s="10">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B225" t="s" s="7">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C225" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D225" t="s" s="7">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E225" t="s" s="6">
         <v>2</v>
@@ -4466,16 +4387,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n" s="10">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="B226" t="s" s="7">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C226" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D226" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E226" t="s" s="6">
         <v>2</v>
@@ -4486,16 +4407,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n" s="10">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="B227" t="s" s="7">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C227" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D227" t="s" s="7">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E227" t="s" s="6">
         <v>2</v>
@@ -4506,16 +4427,16 @@
     </row>
     <row r="228">
       <c r="A228" t="n" s="10">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="B228" t="s" s="7">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C228" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D228" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E228" t="s" s="6">
         <v>2</v>
@@ -4524,220 +4445,220 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B229" t="s" s="7">
-        <v>72</v>
-      </c>
-      <c r="C229" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D229" t="s" s="7">
-        <v>73</v>
-      </c>
-      <c r="E229" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F229" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B230" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C230" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D230" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="E230" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F230" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="229"/>
+    <row r="230"/>
     <row r="231">
-      <c r="A231" t="n" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="B231" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="C231" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D231" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="E231" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F231" t="s" s="6">
+      <c r="A231" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B231" t="s" s="4">
+        <v>67</v>
+      </c>
+      <c r="C231" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D231" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E231" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F231" t="s" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="B232" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="C232" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D232" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="E232" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F232" t="s" s="6">
+      <c r="A232" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B232" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C232" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D232" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E232" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F232" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B233" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="C233" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D233" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="E233" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F233" t="s" s="6">
+      <c r="A233" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B233" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C233" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D233" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E233" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F233" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="B234" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="C234" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D234" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E234" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F234" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235"/>
-    <row r="236"/>
+      <c r="A234" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B234" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C234" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D234" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E234" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F234" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B235" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C235" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D235" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E235" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F235" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B236" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C236" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D236" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E236" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F236" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="237">
-      <c r="A237" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B237" t="s" s="4">
-        <v>74</v>
-      </c>
-      <c r="C237" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D237" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E237" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F237" t="s" s="4">
+      <c r="A237" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B237" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C237" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D237" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E237" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F237" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B238" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C238" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D238" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E238" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F238" t="s" s="9">
+      <c r="A238" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B238" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C238" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D238" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E238" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F238" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B239" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C239" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D239" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E239" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F239" t="s" s="8">
+      <c r="A239" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B239" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C239" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D239" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E239" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F239" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B240" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C240" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D240" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E240" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F240" t="s" s="5">
-        <v>25</v>
+      <c r="A240" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B240" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C240" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D240" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E240" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F240" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n" s="10">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="B241" t="s" s="7">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C241" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D241" t="s" s="7">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E241" t="s" s="6">
         <v>2</v>
@@ -4748,16 +4669,16 @@
     </row>
     <row r="242">
       <c r="A242" t="n" s="10">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="B242" t="s" s="7">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C242" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D242" t="s" s="7">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E242" t="s" s="6">
         <v>2</v>
@@ -4768,16 +4689,16 @@
     </row>
     <row r="243">
       <c r="A243" t="n" s="10">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="B243" t="s" s="7">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C243" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D243" t="s" s="7">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E243" t="s" s="6">
         <v>2</v>
@@ -4786,138 +4707,100 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B244" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C244" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D244" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E244" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F244" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B245" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C245" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D245" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E245" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F245" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="244"/>
+    <row r="245"/>
     <row r="246">
-      <c r="A246" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B246" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C246" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D246" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E246" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F246" t="s" s="6">
+      <c r="A246" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B246" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="C246" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D246" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E246" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F246" t="s" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B247" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C247" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D247" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E247" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F247" t="s" s="6">
+      <c r="A247" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B247" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C247" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D247" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E247" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F247" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B248" t="s" s="7">
-        <v>72</v>
-      </c>
-      <c r="C248" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D248" t="s" s="7">
-        <v>73</v>
-      </c>
-      <c r="E248" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F248" t="s" s="6">
+      <c r="A248" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B248" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C248" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D248" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E248" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F248" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B249" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C249" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D249" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="E249" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F249" t="s" s="6">
-        <v>2</v>
+      <c r="A249" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B249" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C249" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D249" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E249" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F249" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n" s="10">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="B250" t="s" s="7">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C250" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D250" t="s" s="7">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E250" t="s" s="6">
         <v>2</v>
@@ -4928,16 +4811,16 @@
     </row>
     <row r="251">
       <c r="A251" t="n" s="10">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="B251" t="s" s="7">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C251" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D251" t="s" s="7">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E251" t="s" s="6">
         <v>2</v>
@@ -4948,16 +4831,16 @@
     </row>
     <row r="252">
       <c r="A252" t="n" s="10">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="B252" t="s" s="7">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C252" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D252" t="s" s="7">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E252" t="s" s="6">
         <v>2</v>
@@ -4967,119 +4850,157 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="B253" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="C253" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D253" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E253" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F253" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254"/>
-    <row r="255"/>
+      <c r="A253" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B253" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C253" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D253" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E253" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F253" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B254" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C254" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D254" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E254" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F254" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B255" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C255" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D255" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E255" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F255" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="256">
-      <c r="A256" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B256" t="s" s="4">
-        <v>75</v>
-      </c>
-      <c r="C256" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D256" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E256" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F256" t="s" s="4">
+      <c r="A256" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B256" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="C256" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D256" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E256" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F256" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B257" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C257" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D257" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E257" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F257" t="s" s="9">
+      <c r="A257" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B257" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="C257" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D257" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="E257" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F257" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B258" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C258" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D258" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E258" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F258" t="s" s="8">
+      <c r="A258" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B258" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C258" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D258" t="s" s="7">
+        <v>69</v>
+      </c>
+      <c r="E258" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F258" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B259" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C259" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D259" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E259" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F259" t="s" s="5">
-        <v>25</v>
+      <c r="A259" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B259" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="C259" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D259" t="s" s="7">
+        <v>71</v>
+      </c>
+      <c r="E259" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F259" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n" s="10">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="B260" t="s" s="7">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C260" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D260" t="s" s="7">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="E260" t="s" s="6">
         <v>2</v>
@@ -5090,16 +5011,16 @@
     </row>
     <row r="261">
       <c r="A261" t="n" s="10">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="B261" t="s" s="7">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C261" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D261" t="s" s="7">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E261" t="s" s="6">
         <v>2</v>
@@ -5109,906 +5030,22 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B262" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C262" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D262" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E262" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F262" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B263" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C263" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D263" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E263" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F263" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B264" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C264" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D264" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E264" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F264" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B265" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C265" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D265" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E265" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F265" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B266" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="C266" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D266" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E266" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F266" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B267" t="s" s="7">
-        <v>72</v>
-      </c>
-      <c r="C267" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D267" t="s" s="7">
-        <v>73</v>
-      </c>
-      <c r="E267" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F267" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B268" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C268" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D268" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="E268" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F268" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="B269" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="C269" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D269" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="E269" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F269" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="B270" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="C270" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D270" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="E270" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F270" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B271" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="C271" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D271" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="E271" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F271" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="B272" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="C272" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D272" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E272" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F272" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273"/>
-    <row r="274"/>
-    <row r="275">
-      <c r="A275" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B275" t="s" s="4">
+      <c r="A262" t="s" s="8">
         <v>76</v>
       </c>
-      <c r="C275" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D275" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E275" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F275" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B276" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C276" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D276" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E276" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F276" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B277" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C277" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D277" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E277" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F277" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B278" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C278" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D278" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E278" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F278" t="s" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B279" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C279" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D279" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E279" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F279" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B280" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C280" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D280" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E280" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F280" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B281" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C281" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D281" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E281" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F281" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B282" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C282" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D282" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E282" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F282" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B283" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C283" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D283" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E283" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F283" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B284" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C284" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D284" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E284" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F284" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B285" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C285" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D285" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E285" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F285" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B286" t="s" s="7">
-        <v>72</v>
-      </c>
-      <c r="C286" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D286" t="s" s="7">
-        <v>73</v>
-      </c>
-      <c r="E286" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F286" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B287" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C287" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D287" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="E287" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F287" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="B288" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="C288" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D288" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="E288" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F288" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="B289" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="C289" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D289" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="E289" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F289" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B290" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="C290" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D290" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="E290" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F290" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="B291" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="C291" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D291" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E291" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F291" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="292"/>
-    <row r="293"/>
-    <row r="294">
-      <c r="A294" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B294" t="s" s="4">
+      <c r="B262" t="s" s="8">
         <v>77</v>
       </c>
-      <c r="C294" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D294" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E294" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F294" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B295" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C295" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D295" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E295" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F295" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B296" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C296" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D296" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E296" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F296" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B297" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C297" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D297" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E297" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F297" t="s" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B298" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C298" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D298" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E298" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F298" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B299" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C299" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D299" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E299" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F299" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B300" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C300" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D300" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E300" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F300" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B301" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C301" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D301" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E301" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F301" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B302" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C302" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D302" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E302" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F302" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B303" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C303" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D303" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E303" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F303" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B304" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C304" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D304" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E304" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F304" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B305" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="C305" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D305" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="E305" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F305" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B306" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C306" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D306" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="E306" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F306" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="B307" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="C307" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D307" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="E307" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F307" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="B308" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="C308" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D308" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="E308" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F308" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="B309" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="C309" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D309" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="E309" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F309" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="B310" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="C310" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D310" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E310" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F310" t="s" s="8">
+      <c r="C262" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D262" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E262" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F262" t="s" s="8">
         <v>2</v>
       </c>
     </row>
@@ -6025,43 +5062,31 @@
     <mergeCell ref="B53:F53"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B157:D157"/>
     <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="B200:D200"/>
-    <mergeCell ref="B201:F201"/>
-    <mergeCell ref="B215:F215"/>
-    <mergeCell ref="B219:D219"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="B238:D238"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="B253:F253"/>
-    <mergeCell ref="B257:D257"/>
-    <mergeCell ref="B258:F258"/>
-    <mergeCell ref="B272:F272"/>
-    <mergeCell ref="B276:D276"/>
-    <mergeCell ref="B277:F277"/>
-    <mergeCell ref="B291:F291"/>
-    <mergeCell ref="B295:D295"/>
-    <mergeCell ref="B296:F296"/>
-    <mergeCell ref="B310:F310"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="B202:D202"/>
+    <mergeCell ref="B203:F203"/>
+    <mergeCell ref="B217:D217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B247:D247"/>
+    <mergeCell ref="B248:F248"/>
+    <mergeCell ref="B262:F262"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
